--- a/JupyterNotebooks/AvgHW/Alpha1F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,34 +626,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999575073081501</v>
+        <v>0.9998866892039486</v>
       </c>
       <c r="D3">
+        <v>1.000093482063172</v>
+      </c>
+      <c r="E3">
+        <v>0.9999575073081499</v>
+      </c>
+      <c r="F3">
+        <v>0.9999575073081499</v>
+      </c>
+      <c r="G3">
         <v>1.000169967078786</v>
       </c>
-      <c r="E3">
-        <v>0.9999575073081501</v>
-      </c>
-      <c r="F3">
-        <v>0.9999575073081501</v>
-      </c>
-      <c r="G3">
-        <v>0.9998866892039486</v>
-      </c>
       <c r="H3">
-        <v>1.000093482063172</v>
+        <v>0.9999575073081499</v>
       </c>
       <c r="I3">
-        <v>0.9999575073081501</v>
+        <v>0.9999575073081499</v>
       </c>
       <c r="J3">
         <v>1.000169967078786</v>
       </c>
       <c r="K3">
-        <v>0.9999575073081501</v>
+        <v>0.9999575073081499</v>
       </c>
       <c r="L3">
-        <v>0.9999575073081501</v>
+        <v>0.9999575073081499</v>
       </c>
       <c r="M3">
         <v>1.000063737193468</v>
@@ -728,7 +680,7 @@
         <v>1.000003776711726</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,10 +688,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9999179698202409</v>
+        <v>0.9997812528426305</v>
       </c>
       <c r="D4">
-        <v>1.000328120373429</v>
+        <v>1.000180466351349</v>
       </c>
       <c r="E4">
         <v>0.9999179698202409</v>
@@ -748,10 +700,10 @@
         <v>0.9999179698202409</v>
       </c>
       <c r="G4">
-        <v>0.9997812528426305</v>
+        <v>1.000328120373429</v>
       </c>
       <c r="H4">
-        <v>1.000180466351349</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="I4">
         <v>0.9999179698202409</v>
@@ -790,7 +742,7 @@
         <v>1.000007291504688</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,10 +750,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9998428032929316</v>
+        <v>0.9995807976513018</v>
       </c>
       <c r="D5">
-        <v>1.000628804010955</v>
+        <v>1.000345843749235</v>
       </c>
       <c r="E5">
         <v>0.9998428032929316</v>
@@ -810,10 +762,10 @@
         <v>0.9998428032929316</v>
       </c>
       <c r="G5">
-        <v>0.9995807976513018</v>
+        <v>1.000628804010955</v>
       </c>
       <c r="H5">
-        <v>1.000345843749235</v>
+        <v>0.9998428032929316</v>
       </c>
       <c r="I5">
         <v>0.9998428032929316</v>
@@ -852,7 +804,7 @@
         <v>1.000013975881714</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,34 +812,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9997694340589319</v>
+        <v>0.9993851670179172</v>
       </c>
       <c r="D6">
+        <v>1.000507241082407</v>
+      </c>
+      <c r="E6">
+        <v>0.9997694340589323</v>
+      </c>
+      <c r="F6">
+        <v>0.9997694340589323</v>
+      </c>
+      <c r="G6">
         <v>1.000922249155634</v>
       </c>
-      <c r="E6">
-        <v>0.9997694340589319</v>
-      </c>
-      <c r="F6">
-        <v>0.9997694340589319</v>
-      </c>
-      <c r="G6">
-        <v>0.9993851670179172</v>
-      </c>
       <c r="H6">
-        <v>1.000507241082407</v>
+        <v>0.9997694340589323</v>
       </c>
       <c r="I6">
-        <v>0.9997694340589319</v>
+        <v>0.9997694340589323</v>
       </c>
       <c r="J6">
         <v>1.000922249155634</v>
       </c>
       <c r="K6">
-        <v>0.9997694340589319</v>
+        <v>0.9997694340589323</v>
       </c>
       <c r="L6">
-        <v>0.9997694340589319</v>
+        <v>0.9997694340589323</v>
       </c>
       <c r="M6">
         <v>1.000345841607283</v>
@@ -899,22 +851,22 @@
         <v>1.000399641432324</v>
       </c>
       <c r="P6">
-        <v>1.000153705757832</v>
+        <v>1.000153705757833</v>
       </c>
       <c r="Q6">
-        <v>1.000153705757832</v>
+        <v>1.000153705757833</v>
       </c>
       <c r="R6">
-        <v>1.000057637833107</v>
+        <v>1.000057637833108</v>
       </c>
       <c r="S6">
-        <v>1.000057637833107</v>
+        <v>1.000057637833108</v>
       </c>
       <c r="T6">
         <v>1.000020493238792</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999972641080391</v>
+        <v>0.9999927074446205</v>
       </c>
       <c r="D7">
-        <v>1.000010939310734</v>
+        <v>1.000006016683703</v>
       </c>
       <c r="E7">
         <v>0.9999972641080391</v>
@@ -934,10 +886,10 @@
         <v>0.9999972641080391</v>
       </c>
       <c r="G7">
-        <v>0.9999927074446205</v>
+        <v>1.000010939310734</v>
       </c>
       <c r="H7">
-        <v>1.000006016683703</v>
+        <v>0.9999972641080391</v>
       </c>
       <c r="I7">
         <v>0.9999972641080391</v>
@@ -976,7 +928,7 @@
         <v>1.000000242627196</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999938547265997</v>
+        <v>0.99998361509154</v>
       </c>
       <c r="D8">
-        <v>1.000024577559507</v>
+        <v>1.000013517991188</v>
       </c>
       <c r="E8">
         <v>0.9999938547265997</v>
@@ -996,10 +948,10 @@
         <v>0.9999938547265997</v>
       </c>
       <c r="G8">
-        <v>0.99998361509154</v>
+        <v>1.000024577559507</v>
       </c>
       <c r="H8">
-        <v>1.000013517991188</v>
+        <v>0.9999938547265997</v>
       </c>
       <c r="I8">
         <v>0.9999938547265997</v>
@@ -1038,7 +990,7 @@
         <v>1.000000545803672</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,10 +998,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999918364738611</v>
+        <v>0.9999782337438646</v>
       </c>
       <c r="D9">
-        <v>1.000032649755548</v>
+        <v>1.0000179577721</v>
       </c>
       <c r="E9">
         <v>0.9999918364738611</v>
@@ -1058,10 +1010,10 @@
         <v>0.9999918364738611</v>
       </c>
       <c r="G9">
-        <v>0.9999782337438646</v>
+        <v>1.000032649755548</v>
       </c>
       <c r="H9">
-        <v>1.0000179577721</v>
+        <v>0.9999918364738611</v>
       </c>
       <c r="I9">
         <v>0.9999918364738611</v>
@@ -1100,7 +1052,7 @@
         <v>1.000000725115516</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,10 +1060,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999819490056926</v>
+        <v>0.9999518667152471</v>
       </c>
       <c r="D10">
-        <v>1.00007219985888</v>
+        <v>1.000039710179057</v>
       </c>
       <c r="E10">
         <v>0.9999819490056926</v>
@@ -1120,10 +1072,10 @@
         <v>0.9999819490056926</v>
       </c>
       <c r="G10">
-        <v>0.9999518667152471</v>
+        <v>1.00007219985888</v>
       </c>
       <c r="H10">
-        <v>1.000039710179057</v>
+        <v>0.9999819490056926</v>
       </c>
       <c r="I10">
         <v>0.9999819490056926</v>
@@ -1162,7 +1114,7 @@
         <v>1.00000160396171</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,10 +1122,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999714779846349</v>
+        <v>0.9999239437080886</v>
       </c>
       <c r="D11">
-        <v>1.000114082415946</v>
+        <v>1.000062744691498</v>
       </c>
       <c r="E11">
         <v>0.9999714779846349</v>
@@ -1182,10 +1134,10 @@
         <v>0.9999714779846349</v>
       </c>
       <c r="G11">
-        <v>0.9999239437080886</v>
+        <v>1.000114082415946</v>
       </c>
       <c r="H11">
-        <v>1.000062744691497</v>
+        <v>0.9999714779846349</v>
       </c>
       <c r="I11">
         <v>0.9999714779846349</v>
@@ -1224,7 +1176,7 @@
         <v>1.000002534128239</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,10 +1184,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000146222750763</v>
+        <v>1.000389930487881</v>
       </c>
       <c r="D12">
-        <v>0.999415101922278</v>
+        <v>0.9996783087691536</v>
       </c>
       <c r="E12">
         <v>1.000146222750763</v>
@@ -1244,10 +1196,10 @@
         <v>1.000146222750763</v>
       </c>
       <c r="G12">
-        <v>1.000389930487881</v>
+        <v>0.999415101922278</v>
       </c>
       <c r="H12">
-        <v>0.9996783087691536</v>
+        <v>1.000146222750763</v>
       </c>
       <c r="I12">
         <v>1.000146222750763</v>
@@ -1286,7 +1238,7 @@
         <v>0.9999870015719335</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,10 +1246,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000037302701939</v>
+        <v>1.000099473049793</v>
       </c>
       <c r="D13">
-        <v>0.9998507951804644</v>
+        <v>0.999917935680455</v>
       </c>
       <c r="E13">
         <v>1.000037302701939</v>
@@ -1306,10 +1258,10 @@
         <v>1.000037302701939</v>
       </c>
       <c r="G13">
-        <v>1.000099473049793</v>
+        <v>0.9998507951804644</v>
       </c>
       <c r="H13">
-        <v>0.999917935680455</v>
+        <v>1.000037302701939</v>
       </c>
       <c r="I13">
         <v>1.000037302701939</v>
@@ -1348,7 +1300,7 @@
         <v>0.9999966853360881</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,10 +1308,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000225594679133</v>
+        <v>1.000601591216699</v>
       </c>
       <c r="D14">
-        <v>0.9990975961512868</v>
+        <v>0.9995036786203666</v>
       </c>
       <c r="E14">
         <v>1.000225594679133</v>
@@ -1368,10 +1320,10 @@
         <v>1.000225594679133</v>
       </c>
       <c r="G14">
-        <v>1.000601591216699</v>
+        <v>0.9990975961512868</v>
       </c>
       <c r="H14">
-        <v>0.9995036786203666</v>
+        <v>1.000225594679133</v>
       </c>
       <c r="I14">
         <v>1.000225594679133</v>
@@ -1410,7 +1362,7 @@
         <v>0.9999799416709586</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,10 +1370,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000055806830645</v>
+        <v>1.00014882529502</v>
       </c>
       <c r="D15">
-        <v>0.9997767646168036</v>
+        <v>0.9998772208616727</v>
       </c>
       <c r="E15">
         <v>1.000055806830645</v>
@@ -1430,10 +1382,10 @@
         <v>1.000055806830645</v>
       </c>
       <c r="G15">
-        <v>1.00014882529502</v>
+        <v>0.9997767646168036</v>
       </c>
       <c r="H15">
-        <v>0.9998772208616727</v>
+        <v>1.000055806830645</v>
       </c>
       <c r="I15">
         <v>1.000055806830645</v>
@@ -1472,7 +1424,7 @@
         <v>0.9999950385442388</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999998236571693</v>
+        <v>0.9977903520329761</v>
       </c>
       <c r="D16">
-        <v>1.000000701133582</v>
+        <v>1.001822966548609</v>
       </c>
       <c r="E16">
-        <v>0.9999998236571693</v>
+        <v>0.9991713817767696</v>
       </c>
       <c r="F16">
-        <v>0.9999998236571693</v>
+        <v>0.9991713817767696</v>
       </c>
       <c r="G16">
-        <v>0.9999995329703606</v>
+        <v>1.003314477406274</v>
       </c>
       <c r="H16">
-        <v>1.000000385721355</v>
+        <v>0.9991713817767696</v>
       </c>
       <c r="I16">
-        <v>0.9999998236571693</v>
+        <v>0.9991713817767696</v>
       </c>
       <c r="J16">
-        <v>1.000000701133582</v>
+        <v>1.003314477406274</v>
       </c>
       <c r="K16">
-        <v>0.9999998236571693</v>
+        <v>0.9991713817767696</v>
       </c>
       <c r="L16">
-        <v>0.9999998236571693</v>
+        <v>0.9991713817767696</v>
       </c>
       <c r="M16">
-        <v>1.000000262395375</v>
+        <v>1.001242929591522</v>
       </c>
       <c r="N16">
-        <v>1.000000262395375</v>
+        <v>1.001242929591522</v>
       </c>
       <c r="O16">
-        <v>1.000000303504035</v>
+        <v>1.001436275243884</v>
       </c>
       <c r="P16">
-        <v>1.000000116149307</v>
+        <v>1.000552413653271</v>
       </c>
       <c r="Q16">
-        <v>1.000000116149307</v>
+        <v>1.000552413653271</v>
       </c>
       <c r="R16">
-        <v>1.000000043026272</v>
+        <v>1.000207155684146</v>
       </c>
       <c r="S16">
-        <v>1.000000043026272</v>
+        <v>1.000207155684146</v>
       </c>
       <c r="T16">
-        <v>1.000000015132801</v>
+        <v>1.000073656886361</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999962830573224</v>
+        <v>0.998193458871239</v>
       </c>
       <c r="D17">
-        <v>1.000014863517747</v>
+        <v>1.001490401371155</v>
       </c>
       <c r="E17">
-        <v>0.9999962830573224</v>
+        <v>0.999322546601391</v>
       </c>
       <c r="F17">
-        <v>0.9999962830573224</v>
+        <v>0.999322546601391</v>
       </c>
       <c r="G17">
-        <v>0.9999900912801527</v>
+        <v>1.00270981568154</v>
       </c>
       <c r="H17">
-        <v>1.000008174776087</v>
+        <v>0.999322546601391</v>
       </c>
       <c r="I17">
-        <v>0.9999962830573224</v>
+        <v>0.999322546601391</v>
       </c>
       <c r="J17">
-        <v>1.000014863517747</v>
+        <v>1.00270981568154</v>
       </c>
       <c r="K17">
-        <v>0.9999962830573224</v>
+        <v>0.999322546601391</v>
       </c>
       <c r="L17">
-        <v>0.9999962830573224</v>
+        <v>0.999322546601391</v>
       </c>
       <c r="M17">
-        <v>1.000005573287535</v>
+        <v>1.001016181141465</v>
       </c>
       <c r="N17">
-        <v>1.000005573287535</v>
+        <v>1.001016181141465</v>
       </c>
       <c r="O17">
-        <v>1.000006440450385</v>
+        <v>1.001174254551362</v>
       </c>
       <c r="P17">
-        <v>1.00000247654413</v>
+        <v>1.000451636294774</v>
       </c>
       <c r="Q17">
-        <v>1.00000247654413</v>
+        <v>1.000451636294774</v>
       </c>
       <c r="R17">
-        <v>1.000000928172428</v>
+        <v>1.000169363871428</v>
       </c>
       <c r="S17">
-        <v>1.000000928172428</v>
+        <v>1.000169363871428</v>
       </c>
       <c r="T17">
-        <v>1.000000329790992</v>
+        <v>1.000060219288018</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999869176169492</v>
+        <v>0.9990070555966265</v>
       </c>
       <c r="D18">
-        <v>1.000052332987683</v>
+        <v>1.000819180164408</v>
       </c>
       <c r="E18">
-        <v>0.9999869176169492</v>
+        <v>0.9996276463105883</v>
       </c>
       <c r="F18">
-        <v>0.9999869176169492</v>
+        <v>0.9996276463105883</v>
       </c>
       <c r="G18">
-        <v>0.9999651142454183</v>
+        <v>1.001489416257207</v>
       </c>
       <c r="H18">
-        <v>1.000028782347408</v>
+        <v>0.9996276463105883</v>
       </c>
       <c r="I18">
-        <v>0.9999869176169492</v>
+        <v>0.9996276463105883</v>
       </c>
       <c r="J18">
-        <v>1.000052332987683</v>
+        <v>1.001489416257207</v>
       </c>
       <c r="K18">
-        <v>0.9999869176169492</v>
+        <v>0.9996276463105883</v>
       </c>
       <c r="L18">
-        <v>0.9999869176169492</v>
+        <v>0.9996276463105883</v>
       </c>
       <c r="M18">
-        <v>1.000019625302316</v>
+        <v>1.000558531283898</v>
       </c>
       <c r="N18">
-        <v>1.000019625302316</v>
+        <v>1.000558531283898</v>
       </c>
       <c r="O18">
-        <v>1.00002267765068</v>
+        <v>1.000645414244068</v>
       </c>
       <c r="P18">
-        <v>1.000008722740527</v>
+        <v>1.000248236292794</v>
       </c>
       <c r="Q18">
-        <v>1.000008722740527</v>
+        <v>1.000248236292794</v>
       </c>
       <c r="R18">
-        <v>1.000003271459633</v>
+        <v>1.000093088797243</v>
       </c>
       <c r="S18">
-        <v>1.000003271459633</v>
+        <v>1.000093088797243</v>
       </c>
       <c r="T18">
-        <v>1.00000116373856</v>
+        <v>1.000033098491668</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9999693554811157</v>
+        <v>0.998921052218247</v>
       </c>
       <c r="D19">
+        <v>1.000890129854808</v>
+      </c>
+      <c r="E19">
+        <v>0.9995953941456837</v>
+      </c>
+      <c r="F19">
+        <v>0.9995953941456837</v>
+      </c>
+      <c r="G19">
+        <v>1.001618422552703</v>
+      </c>
+      <c r="H19">
+        <v>0.9995953941456837</v>
+      </c>
+      <c r="I19">
+        <v>0.9995953941456837</v>
+      </c>
+      <c r="J19">
+        <v>1.001618422552703</v>
+      </c>
+      <c r="K19">
+        <v>0.9995953941456837</v>
+      </c>
+      <c r="L19">
+        <v>0.9995953941456837</v>
+      </c>
+      <c r="M19">
+        <v>1.000606908349194</v>
+      </c>
+      <c r="N19">
+        <v>1.000606908349194</v>
+      </c>
+      <c r="O19">
+        <v>1.000701315517732</v>
+      </c>
+      <c r="P19">
+        <v>1.000269736948024</v>
+      </c>
+      <c r="Q19">
+        <v>1.000269736948024</v>
+      </c>
+      <c r="R19">
+        <v>1.000101151247438</v>
+      </c>
+      <c r="S19">
+        <v>1.000101151247438</v>
+      </c>
+      <c r="T19">
+        <v>1.000035964510468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999995329703606</v>
+      </c>
+      <c r="D20">
+        <v>1.000000385721355</v>
+      </c>
+      <c r="E20">
+        <v>0.9999998236571693</v>
+      </c>
+      <c r="F20">
+        <v>0.9999998236571693</v>
+      </c>
+      <c r="G20">
+        <v>1.000000701133582</v>
+      </c>
+      <c r="H20">
+        <v>0.9999998236571693</v>
+      </c>
+      <c r="I20">
+        <v>0.9999998236571693</v>
+      </c>
+      <c r="J20">
+        <v>1.000000701133582</v>
+      </c>
+      <c r="K20">
+        <v>0.9999998236571693</v>
+      </c>
+      <c r="L20">
+        <v>0.9999998236571693</v>
+      </c>
+      <c r="M20">
+        <v>1.000000262395375</v>
+      </c>
+      <c r="N20">
+        <v>1.000000262395375</v>
+      </c>
+      <c r="O20">
+        <v>1.000000303504035</v>
+      </c>
+      <c r="P20">
+        <v>1.000000116149307</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000116149307</v>
+      </c>
+      <c r="R20">
+        <v>1.000000043026272</v>
+      </c>
+      <c r="S20">
+        <v>1.000000043026272</v>
+      </c>
+      <c r="T20">
+        <v>1.000000015132801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999900912801527</v>
+      </c>
+      <c r="D21">
+        <v>1.000008174776088</v>
+      </c>
+      <c r="E21">
+        <v>0.9999962830573227</v>
+      </c>
+      <c r="F21">
+        <v>0.9999962830573227</v>
+      </c>
+      <c r="G21">
+        <v>1.000014863517747</v>
+      </c>
+      <c r="H21">
+        <v>0.9999962830573227</v>
+      </c>
+      <c r="I21">
+        <v>0.9999962830573227</v>
+      </c>
+      <c r="J21">
+        <v>1.000014863517747</v>
+      </c>
+      <c r="K21">
+        <v>0.9999962830573227</v>
+      </c>
+      <c r="L21">
+        <v>0.9999962830573227</v>
+      </c>
+      <c r="M21">
+        <v>1.000005573287535</v>
+      </c>
+      <c r="N21">
+        <v>1.000005573287535</v>
+      </c>
+      <c r="O21">
+        <v>1.000006440450386</v>
+      </c>
+      <c r="P21">
+        <v>1.000002476544131</v>
+      </c>
+      <c r="Q21">
+        <v>1.000002476544131</v>
+      </c>
+      <c r="R21">
+        <v>1.000000928172429</v>
+      </c>
+      <c r="S21">
+        <v>1.000000928172429</v>
+      </c>
+      <c r="T21">
+        <v>1.000000329790993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999651142454183</v>
+      </c>
+      <c r="D22">
+        <v>1.000028782347408</v>
+      </c>
+      <c r="E22">
+        <v>0.9999869176169492</v>
+      </c>
+      <c r="F22">
+        <v>0.9999869176169492</v>
+      </c>
+      <c r="G22">
+        <v>1.000052332987683</v>
+      </c>
+      <c r="H22">
+        <v>0.9999869176169492</v>
+      </c>
+      <c r="I22">
+        <v>0.9999869176169492</v>
+      </c>
+      <c r="J22">
+        <v>1.000052332987683</v>
+      </c>
+      <c r="K22">
+        <v>0.9999869176169492</v>
+      </c>
+      <c r="L22">
+        <v>0.9999869176169492</v>
+      </c>
+      <c r="M22">
+        <v>1.000019625302316</v>
+      </c>
+      <c r="N22">
+        <v>1.000019625302316</v>
+      </c>
+      <c r="O22">
+        <v>1.00002267765068</v>
+      </c>
+      <c r="P22">
+        <v>1.000008722740527</v>
+      </c>
+      <c r="Q22">
+        <v>1.000008722740527</v>
+      </c>
+      <c r="R22">
+        <v>1.000003271459633</v>
+      </c>
+      <c r="S22">
+        <v>1.000003271459633</v>
+      </c>
+      <c r="T22">
+        <v>1.00000116373856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9999182697321044</v>
+      </c>
+      <c r="D23">
+        <v>1.000067429367023</v>
+      </c>
+      <c r="E23">
+        <v>0.9999693554811159</v>
+      </c>
+      <c r="F23">
+        <v>0.9999693554811159</v>
+      </c>
+      <c r="G23">
         <v>1.000122594748782</v>
       </c>
-      <c r="E19">
-        <v>0.9999693554811157</v>
-      </c>
-      <c r="F19">
-        <v>0.9999693554811157</v>
-      </c>
-      <c r="G19">
-        <v>0.9999182697321044</v>
-      </c>
-      <c r="H19">
-        <v>1.000067429367023</v>
-      </c>
-      <c r="I19">
-        <v>0.9999693554811157</v>
-      </c>
-      <c r="J19">
+      <c r="H23">
+        <v>0.9999693554811159</v>
+      </c>
+      <c r="I23">
+        <v>0.9999693554811159</v>
+      </c>
+      <c r="J23">
         <v>1.000122594748782</v>
       </c>
-      <c r="K19">
-        <v>0.9999693554811157</v>
-      </c>
-      <c r="L19">
-        <v>0.9999693554811157</v>
-      </c>
-      <c r="M19">
+      <c r="K23">
+        <v>0.9999693554811159</v>
+      </c>
+      <c r="L23">
+        <v>0.9999693554811159</v>
+      </c>
+      <c r="M23">
         <v>1.000045975114949</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000045975114949</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.000053126532307</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.000020435237005</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000020435237005</v>
       </c>
-      <c r="R19">
-        <v>1.000007665298032</v>
-      </c>
-      <c r="S19">
-        <v>1.000007665298032</v>
-      </c>
-      <c r="T19">
+      <c r="R23">
+        <v>1.000007665298033</v>
+      </c>
+      <c r="S23">
+        <v>1.000007665298033</v>
+      </c>
+      <c r="T23">
         <v>1.000002726715209</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 2]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9998866892039486</v>
+        <v>0.9988506555763668</v>
       </c>
       <c r="D3">
-        <v>1.000093482063172</v>
+        <v>1.000948209726224</v>
       </c>
       <c r="E3">
-        <v>0.9999575073081499</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="F3">
-        <v>0.9999575073081499</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="G3">
-        <v>1.000169967078786</v>
+        <v>1.001724018688764</v>
       </c>
       <c r="H3">
-        <v>0.9999575073081499</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="I3">
-        <v>0.9999575073081499</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="J3">
-        <v>1.000169967078786</v>
+        <v>1.001724018688764</v>
       </c>
       <c r="K3">
-        <v>0.9999575073081499</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="L3">
-        <v>0.9999575073081499</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="M3">
-        <v>1.000063737193468</v>
+        <v>1.000646506822768</v>
       </c>
       <c r="N3">
-        <v>1.000063737193468</v>
+        <v>1.000646506822768</v>
       </c>
       <c r="O3">
-        <v>1.000073652150036</v>
+        <v>1.000747074457254</v>
       </c>
       <c r="P3">
-        <v>1.000028327231695</v>
+        <v>1.00028733620077</v>
       </c>
       <c r="Q3">
-        <v>1.000028327231695</v>
+        <v>1.00028733620077</v>
       </c>
       <c r="R3">
-        <v>1.000010622250809</v>
+        <v>1.000107750889771</v>
       </c>
       <c r="S3">
-        <v>1.000010622250809</v>
+        <v>1.000107750889771</v>
       </c>
       <c r="T3">
-        <v>1.000003776711726</v>
+        <v>1.000038311476946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9997812528426305</v>
+        <v>0.998933391133056</v>
       </c>
       <c r="D4">
-        <v>1.000180466351349</v>
+        <v>1.000879953047895</v>
       </c>
       <c r="E4">
-        <v>0.9999179698202409</v>
+        <v>0.9996000207668613</v>
       </c>
       <c r="F4">
-        <v>0.9999179698202409</v>
+        <v>0.9996000207668613</v>
       </c>
       <c r="G4">
-        <v>1.000328120373429</v>
+        <v>1.001599914795009</v>
       </c>
       <c r="H4">
-        <v>0.9999179698202409</v>
+        <v>0.9996000207668613</v>
       </c>
       <c r="I4">
-        <v>0.9999179698202409</v>
+        <v>0.9996000207668613</v>
       </c>
       <c r="J4">
-        <v>1.000328120373429</v>
+        <v>1.001599914795009</v>
       </c>
       <c r="K4">
-        <v>0.9999179698202409</v>
+        <v>0.9996000207668613</v>
       </c>
       <c r="L4">
-        <v>0.9999179698202409</v>
+        <v>0.9996000207668613</v>
       </c>
       <c r="M4">
-        <v>1.000123045096835</v>
+        <v>1.000599967780935</v>
       </c>
       <c r="N4">
-        <v>1.000123045096835</v>
+        <v>1.000599967780935</v>
       </c>
       <c r="O4">
-        <v>1.000142185515006</v>
+        <v>1.000693296203255</v>
       </c>
       <c r="P4">
-        <v>1.000054686671304</v>
+        <v>1.000266652109577</v>
       </c>
       <c r="Q4">
-        <v>1.000054686671304</v>
+        <v>1.000266652109577</v>
       </c>
       <c r="R4">
-        <v>1.000020507458538</v>
+        <v>1.000099994273898</v>
       </c>
       <c r="S4">
-        <v>1.000020507458538</v>
+        <v>1.000099994273898</v>
       </c>
       <c r="T4">
-        <v>1.000007291504688</v>
+        <v>1.000035553546091</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9995807976513018</v>
+        <v>0.9986941771967666</v>
       </c>
       <c r="D5">
-        <v>1.000345843749235</v>
+        <v>1.001077304285716</v>
       </c>
       <c r="E5">
-        <v>0.9998428032929316</v>
+        <v>0.9995103174663084</v>
       </c>
       <c r="F5">
-        <v>0.9998428032929316</v>
+        <v>0.9995103174663084</v>
       </c>
       <c r="G5">
-        <v>1.000628804010955</v>
+        <v>1.00195873851752</v>
       </c>
       <c r="H5">
-        <v>0.9998428032929316</v>
+        <v>0.9995103174663084</v>
       </c>
       <c r="I5">
-        <v>0.9998428032929316</v>
+        <v>0.9995103174663084</v>
       </c>
       <c r="J5">
-        <v>1.000628804010955</v>
+        <v>1.00195873851752</v>
       </c>
       <c r="K5">
-        <v>0.9998428032929316</v>
+        <v>0.9995103174663084</v>
       </c>
       <c r="L5">
-        <v>0.9998428032929316</v>
+        <v>0.9995103174663084</v>
       </c>
       <c r="M5">
-        <v>1.000235803651943</v>
+        <v>1.000734527991914</v>
       </c>
       <c r="N5">
-        <v>1.000235803651943</v>
+        <v>1.000734527991914</v>
       </c>
       <c r="O5">
-        <v>1.000272483684374</v>
+        <v>1.000848786756515</v>
       </c>
       <c r="P5">
-        <v>1.000104803532273</v>
+        <v>1.000326457816712</v>
       </c>
       <c r="Q5">
-        <v>1.000104803532273</v>
+        <v>1.000326457816712</v>
       </c>
       <c r="R5">
-        <v>1.000039303472438</v>
+        <v>1.000122422729111</v>
       </c>
       <c r="S5">
-        <v>1.000039303472438</v>
+        <v>1.000122422729111</v>
       </c>
       <c r="T5">
-        <v>1.000013975881714</v>
+        <v>1.000043528733155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9993851670179172</v>
+        <v>0.9985488448295452</v>
       </c>
       <c r="D6">
-        <v>1.000507241082407</v>
+        <v>1.001197206022726</v>
       </c>
       <c r="E6">
-        <v>0.9997694340589323</v>
+        <v>0.9994558140909091</v>
       </c>
       <c r="F6">
-        <v>0.9997694340589323</v>
+        <v>0.9994558140909091</v>
       </c>
       <c r="G6">
-        <v>1.000922249155634</v>
+        <v>1.002176735511364</v>
       </c>
       <c r="H6">
-        <v>0.9997694340589323</v>
+        <v>0.9994558140909091</v>
       </c>
       <c r="I6">
-        <v>0.9997694340589323</v>
+        <v>0.9994558140909091</v>
       </c>
       <c r="J6">
-        <v>1.000922249155634</v>
+        <v>1.002176735511364</v>
       </c>
       <c r="K6">
-        <v>0.9997694340589323</v>
+        <v>0.9994558140909091</v>
       </c>
       <c r="L6">
-        <v>0.9997694340589323</v>
+        <v>0.9994558140909091</v>
       </c>
       <c r="M6">
-        <v>1.000345841607283</v>
+        <v>1.000816274801136</v>
       </c>
       <c r="N6">
-        <v>1.000345841607283</v>
+        <v>1.000816274801136</v>
       </c>
       <c r="O6">
-        <v>1.000399641432324</v>
+        <v>1.000943251875</v>
       </c>
       <c r="P6">
-        <v>1.000153705757833</v>
+        <v>1.000362787897727</v>
       </c>
       <c r="Q6">
-        <v>1.000153705757833</v>
+        <v>1.000362787897727</v>
       </c>
       <c r="R6">
-        <v>1.000057637833108</v>
+        <v>1.000136044446023</v>
       </c>
       <c r="S6">
-        <v>1.000057637833108</v>
+        <v>1.000136044446023</v>
       </c>
       <c r="T6">
-        <v>1.000020493238792</v>
+        <v>1.000048371439394</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999927074446205</v>
+        <v>1.002142469446656</v>
       </c>
       <c r="D7">
-        <v>1.000006016683703</v>
+        <v>0.9982324619491758</v>
       </c>
       <c r="E7">
-        <v>0.9999972641080391</v>
+        <v>1.000803426044536</v>
       </c>
       <c r="F7">
-        <v>0.9999972641080391</v>
+        <v>1.000803426044536</v>
       </c>
       <c r="G7">
-        <v>1.000010939310734</v>
+        <v>0.9967862908303233</v>
       </c>
       <c r="H7">
-        <v>0.9999972641080391</v>
+        <v>1.000803426044536</v>
       </c>
       <c r="I7">
-        <v>0.9999972641080391</v>
+        <v>1.000803426044536</v>
       </c>
       <c r="J7">
-        <v>1.000010939310734</v>
+        <v>0.9967862908303233</v>
       </c>
       <c r="K7">
-        <v>0.9999972641080391</v>
+        <v>1.000803426044536</v>
       </c>
       <c r="L7">
-        <v>0.9999972641080391</v>
+        <v>1.000803426044536</v>
       </c>
       <c r="M7">
-        <v>1.000004101709387</v>
+        <v>0.9987948584374299</v>
       </c>
       <c r="N7">
-        <v>1.000004101709387</v>
+        <v>0.9987948584374299</v>
       </c>
       <c r="O7">
-        <v>1.000004740034159</v>
+        <v>0.9986073929413452</v>
       </c>
       <c r="P7">
-        <v>1.000001822508938</v>
+        <v>0.9994643809731322</v>
       </c>
       <c r="Q7">
-        <v>1.000001822508938</v>
+        <v>0.9994643809731322</v>
       </c>
       <c r="R7">
-        <v>1.000000682908713</v>
+        <v>0.9997991422409832</v>
       </c>
       <c r="S7">
-        <v>1.000000682908713</v>
+        <v>0.9997991422409832</v>
       </c>
       <c r="T7">
-        <v>1.000000242627196</v>
+        <v>0.9999285833932939</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.99998361509154</v>
+        <v>1.002111841700068</v>
       </c>
       <c r="D8">
-        <v>1.000013517991188</v>
+        <v>0.9982577299156078</v>
       </c>
       <c r="E8">
-        <v>0.9999938547265997</v>
+        <v>1.000791940582414</v>
       </c>
       <c r="F8">
-        <v>0.9999938547265997</v>
+        <v>1.000791940582414</v>
       </c>
       <c r="G8">
-        <v>1.000024577559507</v>
+        <v>0.996832232415972</v>
       </c>
       <c r="H8">
-        <v>0.9999938547265997</v>
+        <v>1.000791940582414</v>
       </c>
       <c r="I8">
-        <v>0.9999938547265997</v>
+        <v>1.000791940582414</v>
       </c>
       <c r="J8">
-        <v>1.000024577559507</v>
+        <v>0.996832232415972</v>
       </c>
       <c r="K8">
-        <v>0.9999938547265997</v>
+        <v>1.000791940582414</v>
       </c>
       <c r="L8">
-        <v>0.9999938547265997</v>
+        <v>1.000791940582414</v>
       </c>
       <c r="M8">
-        <v>1.000009216143053</v>
+        <v>0.9988120864991928</v>
       </c>
       <c r="N8">
-        <v>1.000009216143053</v>
+        <v>0.9988120864991928</v>
       </c>
       <c r="O8">
-        <v>1.000010650092432</v>
+        <v>0.9986273009713312</v>
       </c>
       <c r="P8">
-        <v>1.000004095670902</v>
+        <v>0.9994720378602665</v>
       </c>
       <c r="Q8">
-        <v>1.000004095670902</v>
+        <v>0.9994720378602665</v>
       </c>
       <c r="R8">
-        <v>1.000001535434827</v>
+        <v>0.9998020135408033</v>
       </c>
       <c r="S8">
-        <v>1.000001535434827</v>
+        <v>0.9998020135408033</v>
       </c>
       <c r="T8">
-        <v>1.000000545803672</v>
+        <v>0.9999296042964815</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999782337438646</v>
+        <v>1.002082721250878</v>
       </c>
       <c r="D9">
-        <v>1.0000179577721</v>
+        <v>0.998281754260427</v>
       </c>
       <c r="E9">
-        <v>0.9999918364738611</v>
+        <v>1.000781020396787</v>
       </c>
       <c r="F9">
-        <v>0.9999918364738611</v>
+        <v>1.000781020396787</v>
       </c>
       <c r="G9">
-        <v>1.000032649755548</v>
+        <v>0.9968759131899173</v>
       </c>
       <c r="H9">
-        <v>0.9999918364738611</v>
+        <v>1.000781020396787</v>
       </c>
       <c r="I9">
-        <v>0.9999918364738611</v>
+        <v>1.000781020396787</v>
       </c>
       <c r="J9">
-        <v>1.000032649755548</v>
+        <v>0.9968759131899173</v>
       </c>
       <c r="K9">
-        <v>0.9999918364738611</v>
+        <v>1.000781020396787</v>
       </c>
       <c r="L9">
-        <v>0.9999918364738611</v>
+        <v>1.000781020396787</v>
       </c>
       <c r="M9">
-        <v>1.000012243114705</v>
+        <v>0.9988284667933522</v>
       </c>
       <c r="N9">
-        <v>1.000012243114705</v>
+        <v>0.9988284667933522</v>
       </c>
       <c r="O9">
-        <v>1.000014148000503</v>
+        <v>0.9986462292823771</v>
       </c>
       <c r="P9">
-        <v>1.00000544090109</v>
+        <v>0.9994793179944973</v>
       </c>
       <c r="Q9">
-        <v>1.00000544090109</v>
+        <v>0.9994793179944973</v>
       </c>
       <c r="R9">
-        <v>1.000002039794283</v>
+        <v>0.9998047435950698</v>
       </c>
       <c r="S9">
-        <v>1.000002039794283</v>
+        <v>0.9998047435950698</v>
       </c>
       <c r="T9">
-        <v>1.000000725115516</v>
+        <v>0.9999305749819306</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999518667152471</v>
+        <v>1.002041164353906</v>
       </c>
       <c r="D10">
-        <v>1.000039710179057</v>
+        <v>0.998316038693317</v>
       </c>
       <c r="E10">
-        <v>0.9999819490056926</v>
+        <v>1.000765436311609</v>
       </c>
       <c r="F10">
-        <v>0.9999819490056926</v>
+        <v>1.000765436311609</v>
       </c>
       <c r="G10">
-        <v>1.00007219985888</v>
+        <v>0.9969382487604653</v>
       </c>
       <c r="H10">
-        <v>0.9999819490056926</v>
+        <v>1.000765436311609</v>
       </c>
       <c r="I10">
-        <v>0.9999819490056926</v>
+        <v>1.000765436311609</v>
       </c>
       <c r="J10">
-        <v>1.00007219985888</v>
+        <v>0.9969382487604653</v>
       </c>
       <c r="K10">
-        <v>0.9999819490056926</v>
+        <v>1.000765436311609</v>
       </c>
       <c r="L10">
-        <v>0.9999819490056926</v>
+        <v>1.000765436311609</v>
       </c>
       <c r="M10">
-        <v>1.000027074432286</v>
+        <v>0.9988518425360371</v>
       </c>
       <c r="N10">
-        <v>1.000027074432286</v>
+        <v>0.9988518425360371</v>
       </c>
       <c r="O10">
-        <v>1.000031286347876</v>
+        <v>0.9986732412551304</v>
       </c>
       <c r="P10">
-        <v>1.000012032623422</v>
+        <v>0.9994897071278944</v>
       </c>
       <c r="Q10">
-        <v>1.000012032623422</v>
+        <v>0.9994897071278944</v>
       </c>
       <c r="R10">
-        <v>1.00000451171899</v>
+        <v>0.999808639423823</v>
       </c>
       <c r="S10">
-        <v>1.00000451171899</v>
+        <v>0.999808639423823</v>
       </c>
       <c r="T10">
-        <v>1.00000160396171</v>
+        <v>0.9999319601237525</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999239437080886</v>
+        <v>0.9998871523858243</v>
       </c>
       <c r="D11">
-        <v>1.000062744691498</v>
+        <v>1.000093099464066</v>
       </c>
       <c r="E11">
-        <v>0.9999714779846349</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="F11">
-        <v>0.9999714779846349</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="G11">
-        <v>1.000114082415946</v>
+        <v>1.000169271942194</v>
       </c>
       <c r="H11">
-        <v>0.9999714779846349</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="I11">
-        <v>0.9999714779846349</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="J11">
-        <v>1.000114082415946</v>
+        <v>1.000169271942194</v>
       </c>
       <c r="K11">
-        <v>0.9999714779846349</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="L11">
-        <v>0.9999714779846349</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="M11">
-        <v>1.00004278020029</v>
+        <v>1.000063476704448</v>
       </c>
       <c r="N11">
-        <v>1.00004278020029</v>
+        <v>1.000063476704448</v>
       </c>
       <c r="O11">
-        <v>1.000049435030693</v>
+        <v>1.000073350957654</v>
       </c>
       <c r="P11">
-        <v>1.000019012795072</v>
+        <v>1.000028211625199</v>
       </c>
       <c r="Q11">
-        <v>1.000019012795072</v>
+        <v>1.000028211625199</v>
       </c>
       <c r="R11">
-        <v>1.000007129092463</v>
+        <v>1.000010579085574</v>
       </c>
       <c r="S11">
-        <v>1.000007129092463</v>
+        <v>1.000010579085574</v>
       </c>
       <c r="T11">
-        <v>1.000002534128239</v>
+        <v>1.000003761365365</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000389930487881</v>
+        <v>0.9999560877277101</v>
       </c>
       <c r="D12">
-        <v>0.9996783087691536</v>
+        <v>1.000036228256875</v>
       </c>
       <c r="E12">
-        <v>1.000146222750763</v>
+        <v>0.9999835317032078</v>
       </c>
       <c r="F12">
-        <v>1.000146222750763</v>
+        <v>0.9999835317032078</v>
       </c>
       <c r="G12">
-        <v>0.999415101922278</v>
+        <v>1.000065869133606</v>
       </c>
       <c r="H12">
-        <v>1.000146222750763</v>
+        <v>0.9999835317032078</v>
       </c>
       <c r="I12">
-        <v>1.000146222750763</v>
+        <v>0.9999835317032078</v>
       </c>
       <c r="J12">
-        <v>0.999415101922278</v>
+        <v>1.000065869133606</v>
       </c>
       <c r="K12">
-        <v>1.000146222750763</v>
+        <v>0.9999835317032078</v>
       </c>
       <c r="L12">
-        <v>1.000146222750763</v>
+        <v>0.9999835317032078</v>
       </c>
       <c r="M12">
-        <v>0.9997806623365204</v>
+        <v>1.000024700418407</v>
       </c>
       <c r="N12">
-        <v>0.9997806623365204</v>
+        <v>1.000024700418407</v>
       </c>
       <c r="O12">
-        <v>0.9997465444807315</v>
+        <v>1.000028543031229</v>
       </c>
       <c r="P12">
-        <v>0.9999025158079345</v>
+        <v>1.00001097751334</v>
       </c>
       <c r="Q12">
-        <v>0.9999025158079345</v>
+        <v>1.00001097751334</v>
       </c>
       <c r="R12">
-        <v>0.9999634425436416</v>
+        <v>1.000004116060807</v>
       </c>
       <c r="S12">
-        <v>0.9999634425436416</v>
+        <v>1.000004116060807</v>
       </c>
       <c r="T12">
-        <v>0.9999870015719335</v>
+        <v>1.000001463371302</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000099473049793</v>
+        <v>0.9998611764661074</v>
       </c>
       <c r="D13">
-        <v>0.999917935680455</v>
+        <v>1.000114529629732</v>
       </c>
       <c r="E13">
-        <v>1.000037302701939</v>
+        <v>0.9999479407139872</v>
       </c>
       <c r="F13">
-        <v>1.000037302701939</v>
+        <v>0.9999479407139872</v>
       </c>
       <c r="G13">
-        <v>0.9998507951804644</v>
+        <v>1.000208234483167</v>
       </c>
       <c r="H13">
-        <v>1.000037302701939</v>
+        <v>0.9999479407139872</v>
       </c>
       <c r="I13">
-        <v>1.000037302701939</v>
+        <v>0.9999479407139872</v>
       </c>
       <c r="J13">
-        <v>0.9998507951804644</v>
+        <v>1.000208234483167</v>
       </c>
       <c r="K13">
-        <v>1.000037302701939</v>
+        <v>0.9999479407139872</v>
       </c>
       <c r="L13">
-        <v>1.000037302701939</v>
+        <v>0.9999479407139872</v>
       </c>
       <c r="M13">
-        <v>0.9999440489412015</v>
+        <v>1.000078087598577</v>
       </c>
       <c r="N13">
-        <v>0.9999440489412015</v>
+        <v>1.000078087598577</v>
       </c>
       <c r="O13">
-        <v>0.9999353445209526</v>
+        <v>1.000090234942295</v>
       </c>
       <c r="P13">
-        <v>0.999975133528114</v>
+        <v>1.000034705303714</v>
       </c>
       <c r="Q13">
-        <v>0.999975133528114</v>
+        <v>1.000034705303714</v>
       </c>
       <c r="R13">
-        <v>0.9999906758215702</v>
+        <v>1.000013014156282</v>
       </c>
       <c r="S13">
-        <v>0.9999906758215702</v>
+        <v>1.000013014156282</v>
       </c>
       <c r="T13">
-        <v>0.9999966853360881</v>
+        <v>1.000004627120161</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000601591216699</v>
+        <v>0.9996850010236507</v>
       </c>
       <c r="D14">
-        <v>0.9995036786203666</v>
+        <v>1.000259879592865</v>
       </c>
       <c r="E14">
-        <v>1.000225594679133</v>
+        <v>0.9998818727884614</v>
       </c>
       <c r="F14">
-        <v>1.000225594679133</v>
+        <v>0.9998818727884614</v>
       </c>
       <c r="G14">
-        <v>0.9990975961512868</v>
+        <v>1.000472496078244</v>
       </c>
       <c r="H14">
-        <v>1.000225594679133</v>
+        <v>0.9998818727884614</v>
       </c>
       <c r="I14">
-        <v>1.000225594679133</v>
+        <v>0.9998818727884614</v>
       </c>
       <c r="J14">
-        <v>0.9990975961512868</v>
+        <v>1.000472496078244</v>
       </c>
       <c r="K14">
-        <v>1.000225594679133</v>
+        <v>0.9998818727884614</v>
       </c>
       <c r="L14">
-        <v>1.000225594679133</v>
+        <v>0.9998818727884614</v>
       </c>
       <c r="M14">
-        <v>0.9996615954152099</v>
+        <v>1.000177184433353</v>
       </c>
       <c r="N14">
-        <v>0.9996615954152099</v>
+        <v>1.000177184433353</v>
       </c>
       <c r="O14">
-        <v>0.9996089564835954</v>
+        <v>1.000204749486524</v>
       </c>
       <c r="P14">
-        <v>0.9998495951698509</v>
+        <v>1.000078747218389</v>
       </c>
       <c r="Q14">
-        <v>0.9998495951698509</v>
+        <v>1.000078747218389</v>
       </c>
       <c r="R14">
-        <v>0.9999435950471715</v>
+        <v>1.000029528610907</v>
       </c>
       <c r="S14">
-        <v>0.9999435950471715</v>
+        <v>1.000029528610907</v>
       </c>
       <c r="T14">
-        <v>0.9999799416709586</v>
+        <v>1.000010499176691</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.00014882529502</v>
+        <v>0.9998866892039486</v>
       </c>
       <c r="D15">
-        <v>0.9998772208616727</v>
+        <v>1.000093482063172</v>
       </c>
       <c r="E15">
-        <v>1.000055806830645</v>
+        <v>0.9999575073081499</v>
       </c>
       <c r="F15">
-        <v>1.000055806830645</v>
+        <v>0.9999575073081499</v>
       </c>
       <c r="G15">
-        <v>0.9997767646168036</v>
+        <v>1.000169967078786</v>
       </c>
       <c r="H15">
-        <v>1.000055806830645</v>
+        <v>0.9999575073081499</v>
       </c>
       <c r="I15">
-        <v>1.000055806830645</v>
+        <v>0.9999575073081499</v>
       </c>
       <c r="J15">
-        <v>0.9997767646168036</v>
+        <v>1.000169967078786</v>
       </c>
       <c r="K15">
-        <v>1.000055806830645</v>
+        <v>0.9999575073081499</v>
       </c>
       <c r="L15">
-        <v>1.000055806830645</v>
+        <v>0.9999575073081499</v>
       </c>
       <c r="M15">
-        <v>0.9999162857237245</v>
+        <v>1.000063737193468</v>
       </c>
       <c r="N15">
-        <v>0.9999162857237245</v>
+        <v>1.000063737193468</v>
       </c>
       <c r="O15">
-        <v>0.9999032641030405</v>
+        <v>1.000073652150036</v>
       </c>
       <c r="P15">
-        <v>0.9999627927593648</v>
+        <v>1.000028327231695</v>
       </c>
       <c r="Q15">
-        <v>0.9999627927593648</v>
+        <v>1.000028327231695</v>
       </c>
       <c r="R15">
-        <v>0.999986046277185</v>
+        <v>1.000010622250809</v>
       </c>
       <c r="S15">
-        <v>0.999986046277185</v>
+        <v>1.000010622250809</v>
       </c>
       <c r="T15">
-        <v>0.9999950385442388</v>
+        <v>1.000003776711726</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9977903520329761</v>
+        <v>0.9997812528426305</v>
       </c>
       <c r="D16">
-        <v>1.001822966548609</v>
+        <v>1.000180466351349</v>
       </c>
       <c r="E16">
-        <v>0.9991713817767696</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="F16">
-        <v>0.9991713817767696</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="G16">
-        <v>1.003314477406274</v>
+        <v>1.000328120373429</v>
       </c>
       <c r="H16">
-        <v>0.9991713817767696</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="I16">
-        <v>0.9991713817767696</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="J16">
-        <v>1.003314477406274</v>
+        <v>1.000328120373429</v>
       </c>
       <c r="K16">
-        <v>0.9991713817767696</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="L16">
-        <v>0.9991713817767696</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="M16">
-        <v>1.001242929591522</v>
+        <v>1.000123045096835</v>
       </c>
       <c r="N16">
-        <v>1.001242929591522</v>
+        <v>1.000123045096835</v>
       </c>
       <c r="O16">
-        <v>1.001436275243884</v>
+        <v>1.000142185515006</v>
       </c>
       <c r="P16">
-        <v>1.000552413653271</v>
+        <v>1.000054686671304</v>
       </c>
       <c r="Q16">
-        <v>1.000552413653271</v>
+        <v>1.000054686671304</v>
       </c>
       <c r="R16">
-        <v>1.000207155684146</v>
+        <v>1.000020507458538</v>
       </c>
       <c r="S16">
-        <v>1.000207155684146</v>
+        <v>1.000020507458538</v>
       </c>
       <c r="T16">
-        <v>1.000073656886361</v>
+        <v>1.000007291504688</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.998193458871239</v>
+        <v>0.9995807976513018</v>
       </c>
       <c r="D17">
-        <v>1.001490401371155</v>
+        <v>1.000345843749235</v>
       </c>
       <c r="E17">
-        <v>0.999322546601391</v>
+        <v>0.9998428032929316</v>
       </c>
       <c r="F17">
-        <v>0.999322546601391</v>
+        <v>0.9998428032929316</v>
       </c>
       <c r="G17">
-        <v>1.00270981568154</v>
+        <v>1.000628804010955</v>
       </c>
       <c r="H17">
-        <v>0.999322546601391</v>
+        <v>0.9998428032929316</v>
       </c>
       <c r="I17">
-        <v>0.999322546601391</v>
+        <v>0.9998428032929316</v>
       </c>
       <c r="J17">
-        <v>1.00270981568154</v>
+        <v>1.000628804010955</v>
       </c>
       <c r="K17">
-        <v>0.999322546601391</v>
+        <v>0.9998428032929316</v>
       </c>
       <c r="L17">
-        <v>0.999322546601391</v>
+        <v>0.9998428032929316</v>
       </c>
       <c r="M17">
-        <v>1.001016181141465</v>
+        <v>1.000235803651943</v>
       </c>
       <c r="N17">
-        <v>1.001016181141465</v>
+        <v>1.000235803651943</v>
       </c>
       <c r="O17">
-        <v>1.001174254551362</v>
+        <v>1.000272483684374</v>
       </c>
       <c r="P17">
-        <v>1.000451636294774</v>
+        <v>1.000104803532273</v>
       </c>
       <c r="Q17">
-        <v>1.000451636294774</v>
+        <v>1.000104803532273</v>
       </c>
       <c r="R17">
-        <v>1.000169363871428</v>
+        <v>1.000039303472438</v>
       </c>
       <c r="S17">
-        <v>1.000169363871428</v>
+        <v>1.000039303472438</v>
       </c>
       <c r="T17">
-        <v>1.000060219288018</v>
+        <v>1.000013975881714</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9990070555966265</v>
+        <v>0.9993851670179172</v>
       </c>
       <c r="D18">
-        <v>1.000819180164408</v>
+        <v>1.000507241082407</v>
       </c>
       <c r="E18">
-        <v>0.9996276463105883</v>
+        <v>0.9997694340589323</v>
       </c>
       <c r="F18">
-        <v>0.9996276463105883</v>
+        <v>0.9997694340589323</v>
       </c>
       <c r="G18">
-        <v>1.001489416257207</v>
+        <v>1.000922249155634</v>
       </c>
       <c r="H18">
-        <v>0.9996276463105883</v>
+        <v>0.9997694340589323</v>
       </c>
       <c r="I18">
-        <v>0.9996276463105883</v>
+        <v>0.9997694340589323</v>
       </c>
       <c r="J18">
-        <v>1.001489416257207</v>
+        <v>1.000922249155634</v>
       </c>
       <c r="K18">
-        <v>0.9996276463105883</v>
+        <v>0.9997694340589323</v>
       </c>
       <c r="L18">
-        <v>0.9996276463105883</v>
+        <v>0.9997694340589323</v>
       </c>
       <c r="M18">
-        <v>1.000558531283898</v>
+        <v>1.000345841607283</v>
       </c>
       <c r="N18">
-        <v>1.000558531283898</v>
+        <v>1.000345841607283</v>
       </c>
       <c r="O18">
-        <v>1.000645414244068</v>
+        <v>1.000399641432324</v>
       </c>
       <c r="P18">
-        <v>1.000248236292794</v>
+        <v>1.000153705757833</v>
       </c>
       <c r="Q18">
-        <v>1.000248236292794</v>
+        <v>1.000153705757833</v>
       </c>
       <c r="R18">
-        <v>1.000093088797243</v>
+        <v>1.000057637833108</v>
       </c>
       <c r="S18">
-        <v>1.000093088797243</v>
+        <v>1.000057637833108</v>
       </c>
       <c r="T18">
-        <v>1.000033098491668</v>
+        <v>1.000020493238792</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.998921052218247</v>
+        <v>0.9999927074446205</v>
       </c>
       <c r="D19">
-        <v>1.000890129854808</v>
+        <v>1.000006016683703</v>
       </c>
       <c r="E19">
-        <v>0.9995953941456837</v>
+        <v>0.9999972641080391</v>
       </c>
       <c r="F19">
-        <v>0.9995953941456837</v>
+        <v>0.9999972641080391</v>
       </c>
       <c r="G19">
-        <v>1.001618422552703</v>
+        <v>1.000010939310734</v>
       </c>
       <c r="H19">
-        <v>0.9995953941456837</v>
+        <v>0.9999972641080391</v>
       </c>
       <c r="I19">
-        <v>0.9995953941456837</v>
+        <v>0.9999972641080391</v>
       </c>
       <c r="J19">
-        <v>1.001618422552703</v>
+        <v>1.000010939310734</v>
       </c>
       <c r="K19">
-        <v>0.9995953941456837</v>
+        <v>0.9999972641080391</v>
       </c>
       <c r="L19">
-        <v>0.9995953941456837</v>
+        <v>0.9999972641080391</v>
       </c>
       <c r="M19">
-        <v>1.000606908349194</v>
+        <v>1.000004101709387</v>
       </c>
       <c r="N19">
-        <v>1.000606908349194</v>
+        <v>1.000004101709387</v>
       </c>
       <c r="O19">
-        <v>1.000701315517732</v>
+        <v>1.000004740034159</v>
       </c>
       <c r="P19">
-        <v>1.000269736948024</v>
+        <v>1.000001822508938</v>
       </c>
       <c r="Q19">
-        <v>1.000269736948024</v>
+        <v>1.000001822508938</v>
       </c>
       <c r="R19">
-        <v>1.000101151247438</v>
+        <v>1.000000682908713</v>
       </c>
       <c r="S19">
-        <v>1.000101151247438</v>
+        <v>1.000000682908713</v>
       </c>
       <c r="T19">
-        <v>1.000035964510468</v>
+        <v>1.000000242627196</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999995329703606</v>
+        <v>0.99998361509154</v>
       </c>
       <c r="D20">
-        <v>1.000000385721355</v>
+        <v>1.000013517991188</v>
       </c>
       <c r="E20">
-        <v>0.9999998236571693</v>
+        <v>0.9999938547265997</v>
       </c>
       <c r="F20">
-        <v>0.9999998236571693</v>
+        <v>0.9999938547265997</v>
       </c>
       <c r="G20">
-        <v>1.000000701133582</v>
+        <v>1.000024577559507</v>
       </c>
       <c r="H20">
-        <v>0.9999998236571693</v>
+        <v>0.9999938547265997</v>
       </c>
       <c r="I20">
-        <v>0.9999998236571693</v>
+        <v>0.9999938547265997</v>
       </c>
       <c r="J20">
-        <v>1.000000701133582</v>
+        <v>1.000024577559507</v>
       </c>
       <c r="K20">
-        <v>0.9999998236571693</v>
+        <v>0.9999938547265997</v>
       </c>
       <c r="L20">
-        <v>0.9999998236571693</v>
+        <v>0.9999938547265997</v>
       </c>
       <c r="M20">
-        <v>1.000000262395375</v>
+        <v>1.000009216143053</v>
       </c>
       <c r="N20">
-        <v>1.000000262395375</v>
+        <v>1.000009216143053</v>
       </c>
       <c r="O20">
-        <v>1.000000303504035</v>
+        <v>1.000010650092432</v>
       </c>
       <c r="P20">
-        <v>1.000000116149307</v>
+        <v>1.000004095670902</v>
       </c>
       <c r="Q20">
-        <v>1.000000116149307</v>
+        <v>1.000004095670902</v>
       </c>
       <c r="R20">
-        <v>1.000000043026272</v>
+        <v>1.000001535434827</v>
       </c>
       <c r="S20">
-        <v>1.000000043026272</v>
+        <v>1.000001535434827</v>
       </c>
       <c r="T20">
-        <v>1.000000015132801</v>
+        <v>1.000000545803672</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999900912801527</v>
+        <v>0.9999782337438646</v>
       </c>
       <c r="D21">
-        <v>1.000008174776088</v>
+        <v>1.0000179577721</v>
       </c>
       <c r="E21">
-        <v>0.9999962830573227</v>
+        <v>0.9999918364738611</v>
       </c>
       <c r="F21">
-        <v>0.9999962830573227</v>
+        <v>0.9999918364738611</v>
       </c>
       <c r="G21">
-        <v>1.000014863517747</v>
+        <v>1.000032649755548</v>
       </c>
       <c r="H21">
-        <v>0.9999962830573227</v>
+        <v>0.9999918364738611</v>
       </c>
       <c r="I21">
-        <v>0.9999962830573227</v>
+        <v>0.9999918364738611</v>
       </c>
       <c r="J21">
-        <v>1.000014863517747</v>
+        <v>1.000032649755548</v>
       </c>
       <c r="K21">
-        <v>0.9999962830573227</v>
+        <v>0.9999918364738611</v>
       </c>
       <c r="L21">
-        <v>0.9999962830573227</v>
+        <v>0.9999918364738611</v>
       </c>
       <c r="M21">
-        <v>1.000005573287535</v>
+        <v>1.000012243114705</v>
       </c>
       <c r="N21">
-        <v>1.000005573287535</v>
+        <v>1.000012243114705</v>
       </c>
       <c r="O21">
-        <v>1.000006440450386</v>
+        <v>1.000014148000503</v>
       </c>
       <c r="P21">
-        <v>1.000002476544131</v>
+        <v>1.00000544090109</v>
       </c>
       <c r="Q21">
-        <v>1.000002476544131</v>
+        <v>1.00000544090109</v>
       </c>
       <c r="R21">
-        <v>1.000000928172429</v>
+        <v>1.000002039794283</v>
       </c>
       <c r="S21">
-        <v>1.000000928172429</v>
+        <v>1.000002039794283</v>
       </c>
       <c r="T21">
-        <v>1.000000329790993</v>
+        <v>1.000000725115516</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999651142454183</v>
+        <v>0.9999518667152471</v>
       </c>
       <c r="D22">
-        <v>1.000028782347408</v>
+        <v>1.000039710179057</v>
       </c>
       <c r="E22">
-        <v>0.9999869176169492</v>
+        <v>0.9999819490056926</v>
       </c>
       <c r="F22">
-        <v>0.9999869176169492</v>
+        <v>0.9999819490056926</v>
       </c>
       <c r="G22">
-        <v>1.000052332987683</v>
+        <v>1.00007219985888</v>
       </c>
       <c r="H22">
-        <v>0.9999869176169492</v>
+        <v>0.9999819490056926</v>
       </c>
       <c r="I22">
-        <v>0.9999869176169492</v>
+        <v>0.9999819490056926</v>
       </c>
       <c r="J22">
-        <v>1.000052332987683</v>
+        <v>1.00007219985888</v>
       </c>
       <c r="K22">
-        <v>0.9999869176169492</v>
+        <v>0.9999819490056926</v>
       </c>
       <c r="L22">
-        <v>0.9999869176169492</v>
+        <v>0.9999819490056926</v>
       </c>
       <c r="M22">
-        <v>1.000019625302316</v>
+        <v>1.000027074432286</v>
       </c>
       <c r="N22">
-        <v>1.000019625302316</v>
+        <v>1.000027074432286</v>
       </c>
       <c r="O22">
-        <v>1.00002267765068</v>
+        <v>1.000031286347876</v>
       </c>
       <c r="P22">
-        <v>1.000008722740527</v>
+        <v>1.000012032623422</v>
       </c>
       <c r="Q22">
-        <v>1.000008722740527</v>
+        <v>1.000012032623422</v>
       </c>
       <c r="R22">
-        <v>1.000003271459633</v>
+        <v>1.00000451171899</v>
       </c>
       <c r="S22">
-        <v>1.000003271459633</v>
+        <v>1.00000451171899</v>
       </c>
       <c r="T22">
-        <v>1.00000116373856</v>
+        <v>1.00000160396171</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9999239437080886</v>
+      </c>
+      <c r="D23">
+        <v>1.000062744691498</v>
+      </c>
+      <c r="E23">
+        <v>0.9999714779846349</v>
+      </c>
+      <c r="F23">
+        <v>0.9999714779846349</v>
+      </c>
+      <c r="G23">
+        <v>1.000114082415946</v>
+      </c>
+      <c r="H23">
+        <v>0.9999714779846349</v>
+      </c>
+      <c r="I23">
+        <v>0.9999714779846349</v>
+      </c>
+      <c r="J23">
+        <v>1.000114082415946</v>
+      </c>
+      <c r="K23">
+        <v>0.9999714779846349</v>
+      </c>
+      <c r="L23">
+        <v>0.9999714779846349</v>
+      </c>
+      <c r="M23">
+        <v>1.00004278020029</v>
+      </c>
+      <c r="N23">
+        <v>1.00004278020029</v>
+      </c>
+      <c r="O23">
+        <v>1.000049435030693</v>
+      </c>
+      <c r="P23">
+        <v>1.000019012795072</v>
+      </c>
+      <c r="Q23">
+        <v>1.000019012795072</v>
+      </c>
+      <c r="R23">
+        <v>1.000007129092463</v>
+      </c>
+      <c r="S23">
+        <v>1.000007129092463</v>
+      </c>
+      <c r="T23">
+        <v>1.000002534128239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000389930487881</v>
+      </c>
+      <c r="D24">
+        <v>0.9996783087691536</v>
+      </c>
+      <c r="E24">
+        <v>1.000146222750763</v>
+      </c>
+      <c r="F24">
+        <v>1.000146222750763</v>
+      </c>
+      <c r="G24">
+        <v>0.999415101922278</v>
+      </c>
+      <c r="H24">
+        <v>1.000146222750763</v>
+      </c>
+      <c r="I24">
+        <v>1.000146222750763</v>
+      </c>
+      <c r="J24">
+        <v>0.999415101922278</v>
+      </c>
+      <c r="K24">
+        <v>1.000146222750763</v>
+      </c>
+      <c r="L24">
+        <v>1.000146222750763</v>
+      </c>
+      <c r="M24">
+        <v>0.9997806623365204</v>
+      </c>
+      <c r="N24">
+        <v>0.9997806623365204</v>
+      </c>
+      <c r="O24">
+        <v>0.9997465444807315</v>
+      </c>
+      <c r="P24">
+        <v>0.9999025158079345</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999025158079345</v>
+      </c>
+      <c r="R24">
+        <v>0.9999634425436416</v>
+      </c>
+      <c r="S24">
+        <v>0.9999634425436416</v>
+      </c>
+      <c r="T24">
+        <v>0.9999870015719335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000099473049793</v>
+      </c>
+      <c r="D25">
+        <v>0.999917935680455</v>
+      </c>
+      <c r="E25">
+        <v>1.000037302701939</v>
+      </c>
+      <c r="F25">
+        <v>1.000037302701939</v>
+      </c>
+      <c r="G25">
+        <v>0.9998507951804644</v>
+      </c>
+      <c r="H25">
+        <v>1.000037302701939</v>
+      </c>
+      <c r="I25">
+        <v>1.000037302701939</v>
+      </c>
+      <c r="J25">
+        <v>0.9998507951804644</v>
+      </c>
+      <c r="K25">
+        <v>1.000037302701939</v>
+      </c>
+      <c r="L25">
+        <v>1.000037302701939</v>
+      </c>
+      <c r="M25">
+        <v>0.9999440489412015</v>
+      </c>
+      <c r="N25">
+        <v>0.9999440489412015</v>
+      </c>
+      <c r="O25">
+        <v>0.9999353445209526</v>
+      </c>
+      <c r="P25">
+        <v>0.999975133528114</v>
+      </c>
+      <c r="Q25">
+        <v>0.999975133528114</v>
+      </c>
+      <c r="R25">
+        <v>0.9999906758215702</v>
+      </c>
+      <c r="S25">
+        <v>0.9999906758215702</v>
+      </c>
+      <c r="T25">
+        <v>0.9999966853360881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000601591216699</v>
+      </c>
+      <c r="D26">
+        <v>0.9995036786203666</v>
+      </c>
+      <c r="E26">
+        <v>1.000225594679133</v>
+      </c>
+      <c r="F26">
+        <v>1.000225594679133</v>
+      </c>
+      <c r="G26">
+        <v>0.9990975961512868</v>
+      </c>
+      <c r="H26">
+        <v>1.000225594679133</v>
+      </c>
+      <c r="I26">
+        <v>1.000225594679133</v>
+      </c>
+      <c r="J26">
+        <v>0.9990975961512868</v>
+      </c>
+      <c r="K26">
+        <v>1.000225594679133</v>
+      </c>
+      <c r="L26">
+        <v>1.000225594679133</v>
+      </c>
+      <c r="M26">
+        <v>0.9996615954152099</v>
+      </c>
+      <c r="N26">
+        <v>0.9996615954152099</v>
+      </c>
+      <c r="O26">
+        <v>0.9996089564835954</v>
+      </c>
+      <c r="P26">
+        <v>0.9998495951698509</v>
+      </c>
+      <c r="Q26">
+        <v>0.9998495951698509</v>
+      </c>
+      <c r="R26">
+        <v>0.9999435950471715</v>
+      </c>
+      <c r="S26">
+        <v>0.9999435950471715</v>
+      </c>
+      <c r="T26">
+        <v>0.9999799416709586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.00014882529502</v>
+      </c>
+      <c r="D27">
+        <v>0.9998772208616727</v>
+      </c>
+      <c r="E27">
+        <v>1.000055806830645</v>
+      </c>
+      <c r="F27">
+        <v>1.000055806830645</v>
+      </c>
+      <c r="G27">
+        <v>0.9997767646168036</v>
+      </c>
+      <c r="H27">
+        <v>1.000055806830645</v>
+      </c>
+      <c r="I27">
+        <v>1.000055806830645</v>
+      </c>
+      <c r="J27">
+        <v>0.9997767646168036</v>
+      </c>
+      <c r="K27">
+        <v>1.000055806830645</v>
+      </c>
+      <c r="L27">
+        <v>1.000055806830645</v>
+      </c>
+      <c r="M27">
+        <v>0.9999162857237245</v>
+      </c>
+      <c r="N27">
+        <v>0.9999162857237245</v>
+      </c>
+      <c r="O27">
+        <v>0.9999032641030405</v>
+      </c>
+      <c r="P27">
+        <v>0.9999627927593648</v>
+      </c>
+      <c r="Q27">
+        <v>0.9999627927593648</v>
+      </c>
+      <c r="R27">
+        <v>0.999986046277185</v>
+      </c>
+      <c r="S27">
+        <v>0.999986046277185</v>
+      </c>
+      <c r="T27">
+        <v>0.9999950385442388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9977903520329761</v>
+      </c>
+      <c r="D28">
+        <v>1.001822966548609</v>
+      </c>
+      <c r="E28">
+        <v>0.9991713817767696</v>
+      </c>
+      <c r="F28">
+        <v>0.9991713817767696</v>
+      </c>
+      <c r="G28">
+        <v>1.003314477406274</v>
+      </c>
+      <c r="H28">
+        <v>0.9991713817767696</v>
+      </c>
+      <c r="I28">
+        <v>0.9991713817767696</v>
+      </c>
+      <c r="J28">
+        <v>1.003314477406274</v>
+      </c>
+      <c r="K28">
+        <v>0.9991713817767696</v>
+      </c>
+      <c r="L28">
+        <v>0.9991713817767696</v>
+      </c>
+      <c r="M28">
+        <v>1.001242929591522</v>
+      </c>
+      <c r="N28">
+        <v>1.001242929591522</v>
+      </c>
+      <c r="O28">
+        <v>1.001436275243884</v>
+      </c>
+      <c r="P28">
+        <v>1.000552413653271</v>
+      </c>
+      <c r="Q28">
+        <v>1.000552413653271</v>
+      </c>
+      <c r="R28">
+        <v>1.000207155684146</v>
+      </c>
+      <c r="S28">
+        <v>1.000207155684146</v>
+      </c>
+      <c r="T28">
+        <v>1.000073656886361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.998193458871239</v>
+      </c>
+      <c r="D29">
+        <v>1.001490401371155</v>
+      </c>
+      <c r="E29">
+        <v>0.999322546601391</v>
+      </c>
+      <c r="F29">
+        <v>0.999322546601391</v>
+      </c>
+      <c r="G29">
+        <v>1.00270981568154</v>
+      </c>
+      <c r="H29">
+        <v>0.999322546601391</v>
+      </c>
+      <c r="I29">
+        <v>0.999322546601391</v>
+      </c>
+      <c r="J29">
+        <v>1.00270981568154</v>
+      </c>
+      <c r="K29">
+        <v>0.999322546601391</v>
+      </c>
+      <c r="L29">
+        <v>0.999322546601391</v>
+      </c>
+      <c r="M29">
+        <v>1.001016181141465</v>
+      </c>
+      <c r="N29">
+        <v>1.001016181141465</v>
+      </c>
+      <c r="O29">
+        <v>1.001174254551362</v>
+      </c>
+      <c r="P29">
+        <v>1.000451636294774</v>
+      </c>
+      <c r="Q29">
+        <v>1.000451636294774</v>
+      </c>
+      <c r="R29">
+        <v>1.000169363871428</v>
+      </c>
+      <c r="S29">
+        <v>1.000169363871428</v>
+      </c>
+      <c r="T29">
+        <v>1.000060219288018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9990070555966265</v>
+      </c>
+      <c r="D30">
+        <v>1.000819180164408</v>
+      </c>
+      <c r="E30">
+        <v>0.9996276463105883</v>
+      </c>
+      <c r="F30">
+        <v>0.9996276463105883</v>
+      </c>
+      <c r="G30">
+        <v>1.001489416257207</v>
+      </c>
+      <c r="H30">
+        <v>0.9996276463105883</v>
+      </c>
+      <c r="I30">
+        <v>0.9996276463105883</v>
+      </c>
+      <c r="J30">
+        <v>1.001489416257207</v>
+      </c>
+      <c r="K30">
+        <v>0.9996276463105883</v>
+      </c>
+      <c r="L30">
+        <v>0.9996276463105883</v>
+      </c>
+      <c r="M30">
+        <v>1.000558531283898</v>
+      </c>
+      <c r="N30">
+        <v>1.000558531283898</v>
+      </c>
+      <c r="O30">
+        <v>1.000645414244068</v>
+      </c>
+      <c r="P30">
+        <v>1.000248236292794</v>
+      </c>
+      <c r="Q30">
+        <v>1.000248236292794</v>
+      </c>
+      <c r="R30">
+        <v>1.000093088797243</v>
+      </c>
+      <c r="S30">
+        <v>1.000093088797243</v>
+      </c>
+      <c r="T30">
+        <v>1.000033098491668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.998921052218247</v>
+      </c>
+      <c r="D31">
+        <v>1.000890129854808</v>
+      </c>
+      <c r="E31">
+        <v>0.9995953941456837</v>
+      </c>
+      <c r="F31">
+        <v>0.9995953941456837</v>
+      </c>
+      <c r="G31">
+        <v>1.001618422552703</v>
+      </c>
+      <c r="H31">
+        <v>0.9995953941456837</v>
+      </c>
+      <c r="I31">
+        <v>0.9995953941456837</v>
+      </c>
+      <c r="J31">
+        <v>1.001618422552703</v>
+      </c>
+      <c r="K31">
+        <v>0.9995953941456837</v>
+      </c>
+      <c r="L31">
+        <v>0.9995953941456837</v>
+      </c>
+      <c r="M31">
+        <v>1.000606908349194</v>
+      </c>
+      <c r="N31">
+        <v>1.000606908349194</v>
+      </c>
+      <c r="O31">
+        <v>1.000701315517732</v>
+      </c>
+      <c r="P31">
+        <v>1.000269736948024</v>
+      </c>
+      <c r="Q31">
+        <v>1.000269736948024</v>
+      </c>
+      <c r="R31">
+        <v>1.000101151247438</v>
+      </c>
+      <c r="S31">
+        <v>1.000101151247438</v>
+      </c>
+      <c r="T31">
+        <v>1.000035964510468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9974573649315071</v>
+      </c>
+      <c r="D32">
+        <v>1.002097682876712</v>
+      </c>
+      <c r="E32">
+        <v>0.9990465115068496</v>
+      </c>
+      <c r="F32">
+        <v>0.9990465115068496</v>
+      </c>
+      <c r="G32">
+        <v>1.003813959452055</v>
+      </c>
+      <c r="H32">
+        <v>0.9990465115068496</v>
+      </c>
+      <c r="I32">
+        <v>0.9990465115068496</v>
+      </c>
+      <c r="J32">
+        <v>1.003813959452055</v>
+      </c>
+      <c r="K32">
+        <v>0.9990465115068496</v>
+      </c>
+      <c r="L32">
+        <v>0.9990465115068496</v>
+      </c>
+      <c r="M32">
+        <v>1.001430235479452</v>
+      </c>
+      <c r="N32">
+        <v>1.001430235479452</v>
+      </c>
+      <c r="O32">
+        <v>1.001652717945206</v>
+      </c>
+      <c r="P32">
+        <v>1.000635660821918</v>
+      </c>
+      <c r="Q32">
+        <v>1.000635660821918</v>
+      </c>
+      <c r="R32">
+        <v>1.000238373493151</v>
+      </c>
+      <c r="S32">
+        <v>1.000238373493151</v>
+      </c>
+      <c r="T32">
+        <v>1.000084756963471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.000886104210526</v>
+      </c>
+      <c r="D33">
+        <v>0.9992689663157894</v>
+      </c>
+      <c r="E33">
+        <v>1.000332290526316</v>
+      </c>
+      <c r="F33">
+        <v>1.000332290526316</v>
+      </c>
+      <c r="G33">
+        <v>0.99867085</v>
+      </c>
+      <c r="H33">
+        <v>1.000332290526316</v>
+      </c>
+      <c r="I33">
+        <v>1.000332290526316</v>
+      </c>
+      <c r="J33">
+        <v>0.99867085</v>
+      </c>
+      <c r="K33">
+        <v>1.000332290526316</v>
+      </c>
+      <c r="L33">
+        <v>1.000332290526316</v>
+      </c>
+      <c r="M33">
+        <v>0.999501570263158</v>
+      </c>
+      <c r="N33">
+        <v>0.999501570263158</v>
+      </c>
+      <c r="O33">
+        <v>0.9994240356140351</v>
+      </c>
+      <c r="P33">
+        <v>0.9997784770175441</v>
+      </c>
+      <c r="Q33">
+        <v>0.9997784770175441</v>
+      </c>
+      <c r="R33">
+        <v>0.9999169303947371</v>
+      </c>
+      <c r="S33">
+        <v>0.9999169303947371</v>
+      </c>
+      <c r="T33">
+        <v>0.9999704653508773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.00146686631579</v>
+      </c>
+      <c r="D34">
+        <v>0.998789834736842</v>
+      </c>
+      <c r="E34">
+        <v>1.000550074210526</v>
+      </c>
+      <c r="F34">
+        <v>1.000550074210526</v>
+      </c>
+      <c r="G34">
+        <v>0.9977996968421052</v>
+      </c>
+      <c r="H34">
+        <v>1.000550074210526</v>
+      </c>
+      <c r="I34">
+        <v>1.000550074210526</v>
+      </c>
+      <c r="J34">
+        <v>0.9977996968421052</v>
+      </c>
+      <c r="K34">
+        <v>1.000550074210526</v>
+      </c>
+      <c r="L34">
+        <v>1.000550074210526</v>
+      </c>
+      <c r="M34">
+        <v>0.9991748855263158</v>
+      </c>
+      <c r="N34">
+        <v>0.9991748855263158</v>
+      </c>
+      <c r="O34">
+        <v>0.9990465352631578</v>
+      </c>
+      <c r="P34">
+        <v>0.9996332817543859</v>
+      </c>
+      <c r="Q34">
+        <v>0.9996332817543859</v>
+      </c>
+      <c r="R34">
+        <v>0.999862479868421</v>
+      </c>
+      <c r="S34">
+        <v>0.999862479868421</v>
+      </c>
+      <c r="T34">
+        <v>0.9999511034210525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9960228055515798</v>
+      </c>
+      <c r="D35">
+        <v>1.003281176834317</v>
+      </c>
+      <c r="E35">
+        <v>0.9985085517792605</v>
+      </c>
+      <c r="F35">
+        <v>0.9985085517792605</v>
+      </c>
+      <c r="G35">
+        <v>1.005965812090454</v>
+      </c>
+      <c r="H35">
+        <v>0.9985085517792605</v>
+      </c>
+      <c r="I35">
+        <v>0.9985085517792605</v>
+      </c>
+      <c r="J35">
+        <v>1.005965812090454</v>
+      </c>
+      <c r="K35">
+        <v>0.9985085517792605</v>
+      </c>
+      <c r="L35">
+        <v>0.9985085517792605</v>
+      </c>
+      <c r="M35">
+        <v>1.002237181934857</v>
+      </c>
+      <c r="N35">
+        <v>1.002237181934857</v>
+      </c>
+      <c r="O35">
+        <v>1.002585180234677</v>
+      </c>
+      <c r="P35">
+        <v>1.000994305216325</v>
+      </c>
+      <c r="Q35">
+        <v>1.000994305216325</v>
+      </c>
+      <c r="R35">
+        <v>1.000372866857059</v>
+      </c>
+      <c r="S35">
+        <v>1.000372866857059</v>
+      </c>
+      <c r="T35">
+        <v>1.000132574969022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999995329703606</v>
+      </c>
+      <c r="D36">
+        <v>1.000000385721355</v>
+      </c>
+      <c r="E36">
+        <v>0.9999998236571693</v>
+      </c>
+      <c r="F36">
+        <v>0.9999998236571693</v>
+      </c>
+      <c r="G36">
+        <v>1.000000701133582</v>
+      </c>
+      <c r="H36">
+        <v>0.9999998236571693</v>
+      </c>
+      <c r="I36">
+        <v>0.9999998236571693</v>
+      </c>
+      <c r="J36">
+        <v>1.000000701133582</v>
+      </c>
+      <c r="K36">
+        <v>0.9999998236571693</v>
+      </c>
+      <c r="L36">
+        <v>0.9999998236571693</v>
+      </c>
+      <c r="M36">
+        <v>1.000000262395375</v>
+      </c>
+      <c r="N36">
+        <v>1.000000262395375</v>
+      </c>
+      <c r="O36">
+        <v>1.000000303504035</v>
+      </c>
+      <c r="P36">
+        <v>1.000000116149307</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000116149307</v>
+      </c>
+      <c r="R36">
+        <v>1.000000043026272</v>
+      </c>
+      <c r="S36">
+        <v>1.000000043026272</v>
+      </c>
+      <c r="T36">
+        <v>1.000000015132801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999900912801527</v>
+      </c>
+      <c r="D37">
+        <v>1.000008174776088</v>
+      </c>
+      <c r="E37">
+        <v>0.9999962830573227</v>
+      </c>
+      <c r="F37">
+        <v>0.9999962830573227</v>
+      </c>
+      <c r="G37">
+        <v>1.000014863517747</v>
+      </c>
+      <c r="H37">
+        <v>0.9999962830573227</v>
+      </c>
+      <c r="I37">
+        <v>0.9999962830573227</v>
+      </c>
+      <c r="J37">
+        <v>1.000014863517747</v>
+      </c>
+      <c r="K37">
+        <v>0.9999962830573227</v>
+      </c>
+      <c r="L37">
+        <v>0.9999962830573227</v>
+      </c>
+      <c r="M37">
+        <v>1.000005573287535</v>
+      </c>
+      <c r="N37">
+        <v>1.000005573287535</v>
+      </c>
+      <c r="O37">
+        <v>1.000006440450386</v>
+      </c>
+      <c r="P37">
+        <v>1.000002476544131</v>
+      </c>
+      <c r="Q37">
+        <v>1.000002476544131</v>
+      </c>
+      <c r="R37">
+        <v>1.000000928172429</v>
+      </c>
+      <c r="S37">
+        <v>1.000000928172429</v>
+      </c>
+      <c r="T37">
+        <v>1.000000329790993</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999651142454183</v>
+      </c>
+      <c r="D38">
+        <v>1.000028782347408</v>
+      </c>
+      <c r="E38">
+        <v>0.9999869176169492</v>
+      </c>
+      <c r="F38">
+        <v>0.9999869176169492</v>
+      </c>
+      <c r="G38">
+        <v>1.000052332987683</v>
+      </c>
+      <c r="H38">
+        <v>0.9999869176169492</v>
+      </c>
+      <c r="I38">
+        <v>0.9999869176169492</v>
+      </c>
+      <c r="J38">
+        <v>1.000052332987683</v>
+      </c>
+      <c r="K38">
+        <v>0.9999869176169492</v>
+      </c>
+      <c r="L38">
+        <v>0.9999869176169492</v>
+      </c>
+      <c r="M38">
+        <v>1.000019625302316</v>
+      </c>
+      <c r="N38">
+        <v>1.000019625302316</v>
+      </c>
+      <c r="O38">
+        <v>1.00002267765068</v>
+      </c>
+      <c r="P38">
+        <v>1.000008722740527</v>
+      </c>
+      <c r="Q38">
+        <v>1.000008722740527</v>
+      </c>
+      <c r="R38">
+        <v>1.000003271459633</v>
+      </c>
+      <c r="S38">
+        <v>1.000003271459633</v>
+      </c>
+      <c r="T38">
+        <v>1.00000116373856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9999182697321044</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000067429367023</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9999693554811159</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9999693554811159</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000122594748782</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9999693554811159</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9999693554811159</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000122594748782</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9999693554811159</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9999693554811159</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000045975114949</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000045975114949</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000053126532307</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.000020435237005</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000020435237005</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000007665298033</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000007665298033</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000002726715209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.00061100550866</v>
+      </c>
+      <c r="D40">
+        <v>0.9994959208824752</v>
+      </c>
+      <c r="E40">
+        <v>1.000229125034478</v>
+      </c>
+      <c r="F40">
+        <v>1.000229125034478</v>
+      </c>
+      <c r="G40">
+        <v>0.9990834930624413</v>
+      </c>
+      <c r="H40">
+        <v>1.000229125034478</v>
+      </c>
+      <c r="I40">
+        <v>1.000229125034478</v>
+      </c>
+      <c r="J40">
+        <v>0.9990834930624413</v>
+      </c>
+      <c r="K40">
+        <v>1.000229125034478</v>
+      </c>
+      <c r="L40">
+        <v>1.000229125034478</v>
+      </c>
+      <c r="M40">
+        <v>0.9996563090484596</v>
+      </c>
+      <c r="N40">
+        <v>0.9996563090484596</v>
+      </c>
+      <c r="O40">
+        <v>0.9996028463264648</v>
+      </c>
+      <c r="P40">
+        <v>0.9998472477104657</v>
+      </c>
+      <c r="Q40">
+        <v>0.9998472477104657</v>
+      </c>
+      <c r="R40">
+        <v>0.9999427170414688</v>
+      </c>
+      <c r="S40">
+        <v>0.9999427170414688</v>
+      </c>
+      <c r="T40">
+        <v>0.9999796324261684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9999530301633446</v>
+      </c>
+      <c r="D41">
+        <v>1.000038750150697</v>
+      </c>
+      <c r="E41">
+        <v>0.9999823855871972</v>
+      </c>
+      <c r="F41">
+        <v>0.9999823855871972</v>
+      </c>
+      <c r="G41">
+        <v>1.000070456748942</v>
+      </c>
+      <c r="H41">
+        <v>0.9999823855871972</v>
+      </c>
+      <c r="I41">
+        <v>0.9999823855871972</v>
+      </c>
+      <c r="J41">
+        <v>1.000070456748942</v>
+      </c>
+      <c r="K41">
+        <v>0.9999823855871972</v>
+      </c>
+      <c r="L41">
+        <v>0.9999823855871972</v>
+      </c>
+      <c r="M41">
+        <v>1.00002642116807</v>
+      </c>
+      <c r="N41">
+        <v>1.00002642116807</v>
+      </c>
+      <c r="O41">
+        <v>1.000030530828946</v>
+      </c>
+      <c r="P41">
+        <v>1.000011742641112</v>
+      </c>
+      <c r="Q41">
+        <v>1.000011742641112</v>
+      </c>
+      <c r="R41">
+        <v>1.000004403377633</v>
+      </c>
+      <c r="S41">
+        <v>1.000004403377633</v>
+      </c>
+      <c r="T41">
+        <v>1.000001565637429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9987459337200391</v>
+      </c>
+      <c r="D42">
+        <v>1.001034607588226</v>
+      </c>
+      <c r="E42">
+        <v>0.9995297224343604</v>
+      </c>
+      <c r="F42">
+        <v>0.9995297224343604</v>
+      </c>
+      <c r="G42">
+        <v>1.001881102414926</v>
+      </c>
+      <c r="H42">
+        <v>0.9995297224343604</v>
+      </c>
+      <c r="I42">
+        <v>0.9995297224343604</v>
+      </c>
+      <c r="J42">
+        <v>1.001881102414926</v>
+      </c>
+      <c r="K42">
+        <v>0.9995297224343604</v>
+      </c>
+      <c r="L42">
+        <v>0.9995297224343604</v>
+      </c>
+      <c r="M42">
+        <v>1.000705412424643</v>
+      </c>
+      <c r="N42">
+        <v>1.000705412424643</v>
+      </c>
+      <c r="O42">
+        <v>1.000815144145838</v>
+      </c>
+      <c r="P42">
+        <v>1.000313515761216</v>
+      </c>
+      <c r="Q42">
+        <v>1.000313515761216</v>
+      </c>
+      <c r="R42">
+        <v>1.000117567429502</v>
+      </c>
+      <c r="S42">
+        <v>1.000117567429502</v>
+      </c>
+      <c r="T42">
+        <v>1.000041801837712</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999575073081501</v>
+        <v>0.99998361509154</v>
       </c>
       <c r="D3">
-        <v>1.000169967078786</v>
+        <v>1.000013517991188</v>
       </c>
       <c r="E3">
-        <v>0.9999575073081501</v>
+        <v>0.9999938547265997</v>
       </c>
       <c r="F3">
-        <v>0.9999575073081501</v>
+        <v>0.9999938547265997</v>
       </c>
       <c r="G3">
-        <v>0.9998866892039486</v>
+        <v>1.000024577559507</v>
       </c>
       <c r="H3">
-        <v>1.000093482063172</v>
+        <v>0.9999938547265997</v>
       </c>
       <c r="I3">
-        <v>0.9999575073081501</v>
+        <v>0.9999938547265997</v>
       </c>
       <c r="J3">
-        <v>1.000169967078786</v>
+        <v>1.000024577559507</v>
       </c>
       <c r="K3">
-        <v>0.9999575073081501</v>
+        <v>0.9999938547265997</v>
       </c>
       <c r="L3">
-        <v>0.9999575073081501</v>
+        <v>0.9999938547265997</v>
       </c>
       <c r="M3">
-        <v>1.000063737193468</v>
+        <v>1.000009216143053</v>
       </c>
       <c r="N3">
-        <v>1.000063737193468</v>
+        <v>1.000009216143053</v>
       </c>
       <c r="O3">
-        <v>1.000073652150036</v>
+        <v>1.000010650092432</v>
       </c>
       <c r="P3">
-        <v>1.000028327231695</v>
+        <v>1.000004095670902</v>
       </c>
       <c r="Q3">
-        <v>1.000028327231695</v>
+        <v>1.000004095670902</v>
       </c>
       <c r="R3">
-        <v>1.000010622250809</v>
+        <v>1.000001535434827</v>
       </c>
       <c r="S3">
-        <v>1.000010622250809</v>
+        <v>1.000001535434827</v>
       </c>
       <c r="T3">
-        <v>1.000003776711726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000000545803672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9999179698202409</v>
+        <v>1.00061100550866</v>
       </c>
       <c r="D4">
-        <v>1.000328120373429</v>
+        <v>0.9994959208824752</v>
       </c>
       <c r="E4">
-        <v>0.9999179698202409</v>
+        <v>1.000229125034478</v>
       </c>
       <c r="F4">
-        <v>0.9999179698202409</v>
+        <v>1.000229125034478</v>
       </c>
       <c r="G4">
-        <v>0.9997812528426305</v>
+        <v>0.9990834930624413</v>
       </c>
       <c r="H4">
-        <v>1.000180466351349</v>
+        <v>1.000229125034478</v>
       </c>
       <c r="I4">
-        <v>0.9999179698202409</v>
+        <v>1.000229125034478</v>
       </c>
       <c r="J4">
-        <v>1.000328120373429</v>
+        <v>0.9990834930624413</v>
       </c>
       <c r="K4">
-        <v>0.9999179698202409</v>
+        <v>1.000229125034478</v>
       </c>
       <c r="L4">
-        <v>0.9999179698202409</v>
+        <v>1.000229125034478</v>
       </c>
       <c r="M4">
-        <v>1.000123045096835</v>
+        <v>0.9996563090484596</v>
       </c>
       <c r="N4">
-        <v>1.000123045096835</v>
+        <v>0.9996563090484596</v>
       </c>
       <c r="O4">
-        <v>1.000142185515006</v>
+        <v>0.9996028463264648</v>
       </c>
       <c r="P4">
-        <v>1.000054686671304</v>
+        <v>0.9998472477104657</v>
       </c>
       <c r="Q4">
-        <v>1.000054686671304</v>
+        <v>0.9998472477104657</v>
       </c>
       <c r="R4">
-        <v>1.000020507458538</v>
+        <v>0.9999427170414688</v>
       </c>
       <c r="S4">
-        <v>1.000020507458538</v>
+        <v>0.9999427170414688</v>
       </c>
       <c r="T4">
-        <v>1.000007291504688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9999796324261684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9998428032929316</v>
+        <v>0.9988506555763668</v>
       </c>
       <c r="D5">
-        <v>1.000628804010955</v>
+        <v>1.000948209726224</v>
       </c>
       <c r="E5">
-        <v>0.9998428032929316</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="F5">
-        <v>0.9998428032929316</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="G5">
-        <v>0.9995807976513018</v>
+        <v>1.001724018688764</v>
       </c>
       <c r="H5">
-        <v>1.000345843749235</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="I5">
-        <v>0.9998428032929316</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="J5">
-        <v>1.000628804010955</v>
+        <v>1.001724018688764</v>
       </c>
       <c r="K5">
-        <v>0.9998428032929316</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="L5">
-        <v>0.9998428032929316</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="M5">
-        <v>1.000235803651943</v>
+        <v>1.000646506822768</v>
       </c>
       <c r="N5">
-        <v>1.000235803651943</v>
+        <v>1.000646506822768</v>
       </c>
       <c r="O5">
-        <v>1.000272483684374</v>
+        <v>1.000747074457254</v>
       </c>
       <c r="P5">
-        <v>1.000104803532273</v>
+        <v>1.00028733620077</v>
       </c>
       <c r="Q5">
-        <v>1.000104803532273</v>
+        <v>1.00028733620077</v>
       </c>
       <c r="R5">
-        <v>1.000039303472438</v>
+        <v>1.000107750889771</v>
       </c>
       <c r="S5">
-        <v>1.000039303472438</v>
+        <v>1.000107750889771</v>
       </c>
       <c r="T5">
-        <v>1.000013975881714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.000038311476946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9997694340589319</v>
+        <v>0.9960228055515798</v>
       </c>
       <c r="D6">
-        <v>1.000922249155634</v>
+        <v>1.003281176834317</v>
       </c>
       <c r="E6">
-        <v>0.9997694340589319</v>
+        <v>0.9985085517792605</v>
       </c>
       <c r="F6">
-        <v>0.9997694340589319</v>
+        <v>0.9985085517792605</v>
       </c>
       <c r="G6">
-        <v>0.9993851670179172</v>
+        <v>1.005965812090454</v>
       </c>
       <c r="H6">
-        <v>1.000507241082407</v>
+        <v>0.9985085517792605</v>
       </c>
       <c r="I6">
-        <v>0.9997694340589319</v>
+        <v>0.9985085517792605</v>
       </c>
       <c r="J6">
-        <v>1.000922249155634</v>
+        <v>1.005965812090454</v>
       </c>
       <c r="K6">
-        <v>0.9997694340589319</v>
+        <v>0.9985085517792605</v>
       </c>
       <c r="L6">
-        <v>0.9997694340589319</v>
+        <v>0.9985085517792605</v>
       </c>
       <c r="M6">
-        <v>1.000345841607283</v>
+        <v>1.002237181934857</v>
       </c>
       <c r="N6">
-        <v>1.000345841607283</v>
+        <v>1.002237181934857</v>
       </c>
       <c r="O6">
-        <v>1.000399641432324</v>
+        <v>1.002585180234677</v>
       </c>
       <c r="P6">
-        <v>1.000153705757832</v>
+        <v>1.000994305216325</v>
       </c>
       <c r="Q6">
-        <v>1.000153705757832</v>
+        <v>1.000994305216325</v>
       </c>
       <c r="R6">
-        <v>1.000057637833107</v>
+        <v>1.000372866857059</v>
       </c>
       <c r="S6">
-        <v>1.000057637833107</v>
+        <v>1.000372866857059</v>
       </c>
       <c r="T6">
-        <v>1.000020493238792</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.000132574969022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999972641080391</v>
+        <v>0.9998871523858243</v>
       </c>
       <c r="D7">
-        <v>1.000010939310734</v>
+        <v>1.000093099464066</v>
       </c>
       <c r="E7">
-        <v>0.9999972641080391</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="F7">
-        <v>0.9999972641080391</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="G7">
-        <v>0.9999927074446205</v>
+        <v>1.000169271942194</v>
       </c>
       <c r="H7">
-        <v>1.000006016683703</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="I7">
-        <v>0.9999972641080391</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="J7">
-        <v>1.000010939310734</v>
+        <v>1.000169271942194</v>
       </c>
       <c r="K7">
-        <v>0.9999972641080391</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="L7">
-        <v>0.9999972641080391</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="M7">
-        <v>1.000004101709387</v>
+        <v>1.000063476704448</v>
       </c>
       <c r="N7">
-        <v>1.000004101709387</v>
+        <v>1.000063476704448</v>
       </c>
       <c r="O7">
-        <v>1.000004740034159</v>
+        <v>1.000073350957654</v>
       </c>
       <c r="P7">
-        <v>1.000001822508938</v>
+        <v>1.000028211625199</v>
       </c>
       <c r="Q7">
-        <v>1.000001822508938</v>
+        <v>1.000028211625199</v>
       </c>
       <c r="R7">
-        <v>1.000000682908713</v>
+        <v>1.000010579085574</v>
       </c>
       <c r="S7">
-        <v>1.000000682908713</v>
+        <v>1.000010579085574</v>
       </c>
       <c r="T7">
-        <v>1.000000242627196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.000003761365365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999938547265997</v>
+        <v>0.9999900912801527</v>
       </c>
       <c r="D8">
-        <v>1.000024577559507</v>
+        <v>1.000008174776088</v>
       </c>
       <c r="E8">
-        <v>0.9999938547265997</v>
+        <v>0.9999962830573227</v>
       </c>
       <c r="F8">
-        <v>0.9999938547265997</v>
+        <v>0.9999962830573227</v>
       </c>
       <c r="G8">
-        <v>0.99998361509154</v>
+        <v>1.000014863517747</v>
       </c>
       <c r="H8">
-        <v>1.000013517991188</v>
+        <v>0.9999962830573227</v>
       </c>
       <c r="I8">
-        <v>0.9999938547265997</v>
+        <v>0.9999962830573227</v>
       </c>
       <c r="J8">
-        <v>1.000024577559507</v>
+        <v>1.000014863517747</v>
       </c>
       <c r="K8">
-        <v>0.9999938547265997</v>
+        <v>0.9999962830573227</v>
       </c>
       <c r="L8">
-        <v>0.9999938547265997</v>
+        <v>0.9999962830573227</v>
       </c>
       <c r="M8">
-        <v>1.000009216143053</v>
+        <v>1.000005573287535</v>
       </c>
       <c r="N8">
-        <v>1.000009216143053</v>
+        <v>1.000005573287535</v>
       </c>
       <c r="O8">
-        <v>1.000010650092432</v>
+        <v>1.000006440450386</v>
       </c>
       <c r="P8">
-        <v>1.000004095670902</v>
+        <v>1.000002476544131</v>
       </c>
       <c r="Q8">
-        <v>1.000004095670902</v>
+        <v>1.000002476544131</v>
       </c>
       <c r="R8">
-        <v>1.000001535434827</v>
+        <v>1.000000928172429</v>
       </c>
       <c r="S8">
-        <v>1.000001535434827</v>
+        <v>1.000000928172429</v>
       </c>
       <c r="T8">
-        <v>1.000000545803672</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000000329790993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999918364738611</v>
+        <v>0.9997812528426305</v>
       </c>
       <c r="D9">
-        <v>1.000032649755548</v>
+        <v>1.000180466351349</v>
       </c>
       <c r="E9">
-        <v>0.9999918364738611</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="F9">
-        <v>0.9999918364738611</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="G9">
-        <v>0.9999782337438646</v>
+        <v>1.000328120373429</v>
       </c>
       <c r="H9">
-        <v>1.0000179577721</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="I9">
-        <v>0.9999918364738611</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="J9">
-        <v>1.000032649755548</v>
+        <v>1.000328120373429</v>
       </c>
       <c r="K9">
-        <v>0.9999918364738611</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="L9">
-        <v>0.9999918364738611</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="M9">
-        <v>1.000012243114705</v>
+        <v>1.000123045096835</v>
       </c>
       <c r="N9">
-        <v>1.000012243114705</v>
+        <v>1.000123045096835</v>
       </c>
       <c r="O9">
-        <v>1.000014148000503</v>
+        <v>1.000142185515006</v>
       </c>
       <c r="P9">
-        <v>1.00000544090109</v>
+        <v>1.000054686671304</v>
       </c>
       <c r="Q9">
-        <v>1.00000544090109</v>
+        <v>1.000054686671304</v>
       </c>
       <c r="R9">
-        <v>1.000002039794283</v>
+        <v>1.000020507458538</v>
       </c>
       <c r="S9">
-        <v>1.000002039794283</v>
+        <v>1.000020507458538</v>
       </c>
       <c r="T9">
-        <v>1.000000725115516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.000007291504688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999819490056926</v>
+        <v>0.9959635320398732</v>
       </c>
       <c r="D10">
-        <v>1.00007219985888</v>
+        <v>1.00333007797533</v>
       </c>
       <c r="E10">
-        <v>0.9999819490056926</v>
+        <v>0.9984863240433032</v>
       </c>
       <c r="F10">
-        <v>0.9999819490056926</v>
+        <v>0.9984863240433032</v>
       </c>
       <c r="G10">
-        <v>0.9999518667152471</v>
+        <v>1.006054722636203</v>
       </c>
       <c r="H10">
-        <v>1.000039710179057</v>
+        <v>0.9984863240433032</v>
       </c>
       <c r="I10">
-        <v>0.9999819490056926</v>
+        <v>0.9984863240433032</v>
       </c>
       <c r="J10">
-        <v>1.00007219985888</v>
+        <v>1.006054722636203</v>
       </c>
       <c r="K10">
-        <v>0.9999819490056926</v>
+        <v>0.9984863240433032</v>
       </c>
       <c r="L10">
-        <v>0.9999819490056926</v>
+        <v>0.9984863240433032</v>
       </c>
       <c r="M10">
-        <v>1.000027074432286</v>
+        <v>1.002270523339753</v>
       </c>
       <c r="N10">
-        <v>1.000027074432286</v>
+        <v>1.002270523339753</v>
       </c>
       <c r="O10">
-        <v>1.000031286347876</v>
+        <v>1.002623708218279</v>
       </c>
       <c r="P10">
-        <v>1.000012032623422</v>
+        <v>1.00100912357427</v>
       </c>
       <c r="Q10">
-        <v>1.000012032623422</v>
+        <v>1.00100912357427</v>
       </c>
       <c r="R10">
-        <v>1.00000451171899</v>
+        <v>1.000378423691528</v>
       </c>
       <c r="S10">
-        <v>1.00000451171899</v>
+        <v>1.000378423691528</v>
       </c>
       <c r="T10">
-        <v>1.00000160396171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.000134550796886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999714779846349</v>
+        <v>1.000247377494052</v>
       </c>
       <c r="D11">
-        <v>1.000114082415946</v>
+        <v>0.99979591438881</v>
       </c>
       <c r="E11">
-        <v>0.9999714779846349</v>
+        <v>1.000092764955173</v>
       </c>
       <c r="F11">
-        <v>0.9999714779846349</v>
+        <v>1.000092764955173</v>
       </c>
       <c r="G11">
-        <v>0.9999239437080886</v>
+        <v>0.9996289370118633</v>
       </c>
       <c r="H11">
-        <v>1.000062744691497</v>
+        <v>1.000092764955173</v>
       </c>
       <c r="I11">
-        <v>0.9999714779846349</v>
+        <v>1.000092764955173</v>
       </c>
       <c r="J11">
-        <v>1.000114082415946</v>
+        <v>0.9996289370118633</v>
       </c>
       <c r="K11">
-        <v>0.9999714779846349</v>
+        <v>1.000092764955173</v>
       </c>
       <c r="L11">
-        <v>0.9999714779846349</v>
+        <v>1.000092764955173</v>
       </c>
       <c r="M11">
-        <v>1.00004278020029</v>
+        <v>0.9998608509835178</v>
       </c>
       <c r="N11">
-        <v>1.00004278020029</v>
+        <v>0.9998608509835178</v>
       </c>
       <c r="O11">
-        <v>1.000049435030693</v>
+        <v>0.9998392054519485</v>
       </c>
       <c r="P11">
-        <v>1.000019012795072</v>
+        <v>0.9999381556407361</v>
       </c>
       <c r="Q11">
-        <v>1.000019012795072</v>
+        <v>0.9999381556407361</v>
       </c>
       <c r="R11">
-        <v>1.000007129092463</v>
+        <v>0.9999768079693452</v>
       </c>
       <c r="S11">
-        <v>1.000007129092463</v>
+        <v>0.9999768079693452</v>
       </c>
       <c r="T11">
-        <v>1.000002534128239</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9999917539600404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000146222750763</v>
+        <v>0.9988104541263135</v>
       </c>
       <c r="D12">
-        <v>0.999415101922278</v>
+        <v>1.000981376357895</v>
       </c>
       <c r="E12">
-        <v>1.000146222750763</v>
+        <v>0.9995539189473672</v>
       </c>
       <c r="F12">
-        <v>1.000146222750763</v>
+        <v>0.9995539189473672</v>
       </c>
       <c r="G12">
-        <v>1.000389930487881</v>
+        <v>1.001784321884214</v>
       </c>
       <c r="H12">
-        <v>0.9996783087691536</v>
+        <v>0.9995539189473672</v>
       </c>
       <c r="I12">
-        <v>1.000146222750763</v>
+        <v>0.9995539189473672</v>
       </c>
       <c r="J12">
-        <v>0.999415101922278</v>
+        <v>1.001784321884214</v>
       </c>
       <c r="K12">
-        <v>1.000146222750763</v>
+        <v>0.9995539189473672</v>
       </c>
       <c r="L12">
-        <v>1.000146222750763</v>
+        <v>0.9995539189473672</v>
       </c>
       <c r="M12">
-        <v>0.9997806623365204</v>
+        <v>1.00066912041579</v>
       </c>
       <c r="N12">
-        <v>0.9997806623365204</v>
+        <v>1.00066912041579</v>
       </c>
       <c r="O12">
-        <v>0.9997465444807315</v>
+        <v>1.000773205729826</v>
       </c>
       <c r="P12">
-        <v>0.9999025158079345</v>
+        <v>1.000297386592983</v>
       </c>
       <c r="Q12">
-        <v>0.9999025158079345</v>
+        <v>1.000297386592983</v>
       </c>
       <c r="R12">
-        <v>0.9999634425436416</v>
+        <v>1.000111519681579</v>
       </c>
       <c r="S12">
-        <v>0.9999634425436416</v>
+        <v>1.000111519681579</v>
       </c>
       <c r="T12">
-        <v>0.9999870015719335</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.000039651535087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000037302701939</v>
+        <v>1.00079386864396</v>
       </c>
       <c r="D13">
-        <v>0.9998507951804644</v>
+        <v>0.9993450600703044</v>
       </c>
       <c r="E13">
-        <v>1.000037302701939</v>
+        <v>1.000297699021145</v>
       </c>
       <c r="F13">
-        <v>1.000037302701939</v>
+        <v>1.000297699021145</v>
       </c>
       <c r="G13">
-        <v>1.000099473049793</v>
+        <v>0.9988091989906001</v>
       </c>
       <c r="H13">
-        <v>0.999917935680455</v>
+        <v>1.000297699021145</v>
       </c>
       <c r="I13">
-        <v>1.000037302701939</v>
+        <v>1.000297699021145</v>
       </c>
       <c r="J13">
-        <v>0.9998507951804644</v>
+        <v>0.9988091989906001</v>
       </c>
       <c r="K13">
-        <v>1.000037302701939</v>
+        <v>1.000297699021145</v>
       </c>
       <c r="L13">
-        <v>1.000037302701939</v>
+        <v>1.000297699021145</v>
       </c>
       <c r="M13">
-        <v>0.9999440489412015</v>
+        <v>0.9995534490058725</v>
       </c>
       <c r="N13">
-        <v>0.9999440489412015</v>
+        <v>0.9995534490058725</v>
       </c>
       <c r="O13">
-        <v>0.9999353445209526</v>
+        <v>0.9994839860273498</v>
       </c>
       <c r="P13">
-        <v>0.999975133528114</v>
+        <v>0.9998015323442967</v>
       </c>
       <c r="Q13">
-        <v>0.999975133528114</v>
+        <v>0.9998015323442967</v>
       </c>
       <c r="R13">
-        <v>0.9999906758215702</v>
+        <v>0.9999255740135087</v>
       </c>
       <c r="S13">
-        <v>0.9999906758215702</v>
+        <v>0.9999255740135087</v>
       </c>
       <c r="T13">
-        <v>0.9999966853360881</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.9999735374613831</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.000225594679133</v>
+        <v>0.9930261599999998</v>
       </c>
       <c r="D14">
-        <v>0.9990975961512868</v>
+        <v>1.005753400000002</v>
       </c>
       <c r="E14">
-        <v>1.000225594679133</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="F14">
-        <v>1.000225594679133</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="G14">
-        <v>1.000601591216699</v>
+        <v>1.010460799999999</v>
       </c>
       <c r="H14">
-        <v>0.9995036786203666</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="I14">
-        <v>1.000225594679133</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="J14">
-        <v>0.9990975961512868</v>
+        <v>1.010460799999999</v>
       </c>
       <c r="K14">
-        <v>1.000225594679133</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="L14">
-        <v>1.000225594679133</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="M14">
-        <v>0.9996615954152099</v>
+        <v>1.003922805</v>
       </c>
       <c r="N14">
-        <v>0.9996615954152099</v>
+        <v>1.003922805</v>
       </c>
       <c r="O14">
-        <v>0.9996089564835954</v>
+        <v>1.004533003333334</v>
       </c>
       <c r="P14">
-        <v>0.9998495951698509</v>
+        <v>1.001743473333333</v>
       </c>
       <c r="Q14">
-        <v>0.9998495951698509</v>
+        <v>1.001743473333333</v>
       </c>
       <c r="R14">
-        <v>0.9999435950471715</v>
+        <v>1.0006538075</v>
       </c>
       <c r="S14">
-        <v>0.9999435950471715</v>
+        <v>1.0006538075</v>
       </c>
       <c r="T14">
-        <v>0.9999799416709586</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.000232465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000055806830645</v>
+        <v>1.0026814</v>
       </c>
       <c r="D15">
-        <v>0.9997767646168036</v>
+        <v>0.99778785</v>
       </c>
       <c r="E15">
-        <v>1.000055806830645</v>
+        <v>1.0010055</v>
       </c>
       <c r="F15">
-        <v>1.000055806830645</v>
+        <v>1.0010055</v>
       </c>
       <c r="G15">
-        <v>1.00014882529502</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H15">
-        <v>0.9998772208616727</v>
+        <v>1.0010055</v>
       </c>
       <c r="I15">
-        <v>1.000055806830645</v>
+        <v>1.0010055</v>
       </c>
       <c r="J15">
-        <v>0.9997767646168036</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="K15">
-        <v>1.000055806830645</v>
+        <v>1.0010055</v>
       </c>
       <c r="L15">
-        <v>1.000055806830645</v>
+        <v>1.0010055</v>
       </c>
       <c r="M15">
-        <v>0.9999162857237245</v>
+        <v>0.9984917</v>
       </c>
       <c r="N15">
-        <v>0.9999162857237245</v>
+        <v>0.9984917</v>
       </c>
       <c r="O15">
-        <v>0.9999032641030405</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P15">
-        <v>0.9999627927593648</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q15">
-        <v>0.9999627927593648</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R15">
-        <v>0.999986046277185</v>
+        <v>0.9997486</v>
       </c>
       <c r="S15">
-        <v>0.999986046277185</v>
+        <v>0.9997486</v>
       </c>
       <c r="T15">
-        <v>0.9999950385442388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9999106083333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9999998236571693</v>
+        <v>1.0044469</v>
       </c>
       <c r="D16">
-        <v>1.000000701133582</v>
+        <v>0.99633129</v>
       </c>
       <c r="E16">
-        <v>0.9999998236571693</v>
+        <v>1.0016676</v>
       </c>
       <c r="F16">
-        <v>0.9999998236571693</v>
+        <v>1.0016676</v>
       </c>
       <c r="G16">
-        <v>0.9999995329703606</v>
+        <v>0.99332961</v>
       </c>
       <c r="H16">
-        <v>1.000000385721355</v>
+        <v>1.0016676</v>
       </c>
       <c r="I16">
-        <v>0.9999998236571693</v>
+        <v>1.0016676</v>
       </c>
       <c r="J16">
-        <v>1.000000701133582</v>
+        <v>0.99332961</v>
       </c>
       <c r="K16">
-        <v>0.9999998236571693</v>
+        <v>1.0016676</v>
       </c>
       <c r="L16">
-        <v>0.9999998236571693</v>
+        <v>1.0016676</v>
       </c>
       <c r="M16">
-        <v>1.000000262395375</v>
+        <v>0.997498605</v>
       </c>
       <c r="N16">
-        <v>1.000000262395375</v>
+        <v>0.997498605</v>
       </c>
       <c r="O16">
-        <v>1.000000303504035</v>
+        <v>0.9971095</v>
       </c>
       <c r="P16">
-        <v>1.000000116149307</v>
+        <v>0.99888827</v>
       </c>
       <c r="Q16">
-        <v>1.000000116149307</v>
+        <v>0.99888827</v>
       </c>
       <c r="R16">
-        <v>1.000000043026272</v>
+        <v>0.9995831024999999</v>
       </c>
       <c r="S16">
-        <v>1.000000043026272</v>
+        <v>0.9995831024999999</v>
       </c>
       <c r="T16">
-        <v>1.000000015132801</v>
+        <v>0.9998517666666668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999962830573224</v>
+        <v>1.0049952</v>
       </c>
       <c r="D17">
-        <v>1.000014863517747</v>
+        <v>0.99587895</v>
       </c>
       <c r="E17">
-        <v>0.9999962830573224</v>
+        <v>1.0018732</v>
       </c>
       <c r="F17">
-        <v>0.9999962830573224</v>
+        <v>1.0018732</v>
       </c>
       <c r="G17">
-        <v>0.9999900912801527</v>
+        <v>0.99250719</v>
       </c>
       <c r="H17">
-        <v>1.000008174776087</v>
+        <v>1.0018732</v>
       </c>
       <c r="I17">
-        <v>0.9999962830573224</v>
+        <v>1.0018732</v>
       </c>
       <c r="J17">
-        <v>1.000014863517747</v>
+        <v>0.99250719</v>
       </c>
       <c r="K17">
-        <v>0.9999962830573224</v>
+        <v>1.0018732</v>
       </c>
       <c r="L17">
-        <v>0.9999962830573224</v>
+        <v>1.0018732</v>
       </c>
       <c r="M17">
-        <v>1.000005573287535</v>
+        <v>0.9971901949999999</v>
       </c>
       <c r="N17">
-        <v>1.000005573287535</v>
+        <v>0.9971901949999999</v>
       </c>
       <c r="O17">
-        <v>1.000006440450385</v>
+        <v>0.9967531133333333</v>
       </c>
       <c r="P17">
-        <v>1.00000247654413</v>
+        <v>0.9987511966666666</v>
       </c>
       <c r="Q17">
-        <v>1.00000247654413</v>
+        <v>0.9987511966666666</v>
       </c>
       <c r="R17">
-        <v>1.000000928172428</v>
+        <v>0.9995316974999999</v>
       </c>
       <c r="S17">
-        <v>1.000000928172428</v>
+        <v>0.9995316974999999</v>
       </c>
       <c r="T17">
-        <v>1.000000329790992</v>
+        <v>0.99983349</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9999869176169492</v>
+        <v>0.9974573649315071</v>
       </c>
       <c r="D18">
-        <v>1.000052332987683</v>
+        <v>1.002097682876712</v>
       </c>
       <c r="E18">
-        <v>0.9999869176169492</v>
+        <v>0.9990465115068496</v>
       </c>
       <c r="F18">
-        <v>0.9999869176169492</v>
+        <v>0.9990465115068496</v>
       </c>
       <c r="G18">
-        <v>0.9999651142454183</v>
+        <v>1.003813959452055</v>
       </c>
       <c r="H18">
-        <v>1.000028782347408</v>
+        <v>0.9990465115068496</v>
       </c>
       <c r="I18">
-        <v>0.9999869176169492</v>
+        <v>0.9990465115068496</v>
       </c>
       <c r="J18">
-        <v>1.000052332987683</v>
+        <v>1.003813959452055</v>
       </c>
       <c r="K18">
-        <v>0.9999869176169492</v>
+        <v>0.9990465115068496</v>
       </c>
       <c r="L18">
-        <v>0.9999869176169492</v>
+        <v>0.9990465115068496</v>
       </c>
       <c r="M18">
-        <v>1.000019625302316</v>
+        <v>1.001430235479452</v>
       </c>
       <c r="N18">
-        <v>1.000019625302316</v>
+        <v>1.001430235479452</v>
       </c>
       <c r="O18">
-        <v>1.00002267765068</v>
+        <v>1.001652717945206</v>
       </c>
       <c r="P18">
-        <v>1.000008722740527</v>
+        <v>1.000635660821918</v>
       </c>
       <c r="Q18">
-        <v>1.000008722740527</v>
+        <v>1.000635660821918</v>
       </c>
       <c r="R18">
-        <v>1.000003271459633</v>
+        <v>1.000238373493151</v>
       </c>
       <c r="S18">
-        <v>1.000003271459633</v>
+        <v>1.000238373493151</v>
       </c>
       <c r="T18">
-        <v>1.00000116373856</v>
+        <v>1.000084756963471</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9999693554811157</v>
+        <v>1.000886104210526</v>
       </c>
       <c r="D19">
-        <v>1.000122594748782</v>
+        <v>0.9992689663157894</v>
       </c>
       <c r="E19">
-        <v>0.9999693554811157</v>
+        <v>1.000332290526316</v>
       </c>
       <c r="F19">
-        <v>0.9999693554811157</v>
+        <v>1.000332290526316</v>
       </c>
       <c r="G19">
-        <v>0.9999182697321044</v>
+        <v>0.99867085</v>
       </c>
       <c r="H19">
-        <v>1.000067429367023</v>
+        <v>1.000332290526316</v>
       </c>
       <c r="I19">
-        <v>0.9999693554811157</v>
+        <v>1.000332290526316</v>
       </c>
       <c r="J19">
-        <v>1.000122594748782</v>
+        <v>0.99867085</v>
       </c>
       <c r="K19">
-        <v>0.9999693554811157</v>
+        <v>1.000332290526316</v>
       </c>
       <c r="L19">
-        <v>0.9999693554811157</v>
+        <v>1.000332290526316</v>
       </c>
       <c r="M19">
-        <v>1.000045975114949</v>
+        <v>0.999501570263158</v>
       </c>
       <c r="N19">
-        <v>1.000045975114949</v>
+        <v>0.999501570263158</v>
       </c>
       <c r="O19">
-        <v>1.000053126532307</v>
+        <v>0.9994240356140351</v>
       </c>
       <c r="P19">
-        <v>1.000020435237005</v>
+        <v>0.9997784770175441</v>
       </c>
       <c r="Q19">
-        <v>1.000020435237005</v>
+        <v>0.9997784770175441</v>
       </c>
       <c r="R19">
-        <v>1.000007665298032</v>
+        <v>0.9999169303947371</v>
       </c>
       <c r="S19">
-        <v>1.000007665298032</v>
+        <v>0.9999169303947371</v>
       </c>
       <c r="T19">
-        <v>1.000002726715209</v>
+        <v>0.9999704653508773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.00146686631579</v>
+      </c>
+      <c r="D20">
+        <v>0.998789834736842</v>
+      </c>
+      <c r="E20">
+        <v>1.000550074210526</v>
+      </c>
+      <c r="F20">
+        <v>1.000550074210526</v>
+      </c>
+      <c r="G20">
+        <v>0.9977996968421052</v>
+      </c>
+      <c r="H20">
+        <v>1.000550074210526</v>
+      </c>
+      <c r="I20">
+        <v>1.000550074210526</v>
+      </c>
+      <c r="J20">
+        <v>0.9977996968421052</v>
+      </c>
+      <c r="K20">
+        <v>1.000550074210526</v>
+      </c>
+      <c r="L20">
+        <v>1.000550074210526</v>
+      </c>
+      <c r="M20">
+        <v>0.9991748855263158</v>
+      </c>
+      <c r="N20">
+        <v>0.9991748855263158</v>
+      </c>
+      <c r="O20">
+        <v>0.9990465352631578</v>
+      </c>
+      <c r="P20">
+        <v>0.9996332817543859</v>
+      </c>
+      <c r="Q20">
+        <v>0.9996332817543859</v>
+      </c>
+      <c r="R20">
+        <v>0.999862479868421</v>
+      </c>
+      <c r="S20">
+        <v>0.999862479868421</v>
+      </c>
+      <c r="T20">
+        <v>0.9999511034210525</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000601591216699</v>
+      </c>
+      <c r="D21">
+        <v>0.9995036786203666</v>
+      </c>
+      <c r="E21">
+        <v>1.000225594679133</v>
+      </c>
+      <c r="F21">
+        <v>1.000225594679133</v>
+      </c>
+      <c r="G21">
+        <v>0.9990975961512868</v>
+      </c>
+      <c r="H21">
+        <v>1.000225594679133</v>
+      </c>
+      <c r="I21">
+        <v>1.000225594679133</v>
+      </c>
+      <c r="J21">
+        <v>0.9990975961512868</v>
+      </c>
+      <c r="K21">
+        <v>1.000225594679133</v>
+      </c>
+      <c r="L21">
+        <v>1.000225594679133</v>
+      </c>
+      <c r="M21">
+        <v>0.9996615954152099</v>
+      </c>
+      <c r="N21">
+        <v>0.9996615954152099</v>
+      </c>
+      <c r="O21">
+        <v>0.9996089564835954</v>
+      </c>
+      <c r="P21">
+        <v>0.9998495951698509</v>
+      </c>
+      <c r="Q21">
+        <v>0.9998495951698509</v>
+      </c>
+      <c r="R21">
+        <v>0.9999435950471715</v>
+      </c>
+      <c r="S21">
+        <v>0.9999435950471715</v>
+      </c>
+      <c r="T21">
+        <v>0.9999799416709586</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.00014882529502</v>
+      </c>
+      <c r="D22">
+        <v>0.9998772208616727</v>
+      </c>
+      <c r="E22">
+        <v>1.000055806830645</v>
+      </c>
+      <c r="F22">
+        <v>1.000055806830645</v>
+      </c>
+      <c r="G22">
+        <v>0.9997767646168036</v>
+      </c>
+      <c r="H22">
+        <v>1.000055806830645</v>
+      </c>
+      <c r="I22">
+        <v>1.000055806830645</v>
+      </c>
+      <c r="J22">
+        <v>0.9997767646168036</v>
+      </c>
+      <c r="K22">
+        <v>1.000055806830645</v>
+      </c>
+      <c r="L22">
+        <v>1.000055806830645</v>
+      </c>
+      <c r="M22">
+        <v>0.9999162857237245</v>
+      </c>
+      <c r="N22">
+        <v>0.9999162857237245</v>
+      </c>
+      <c r="O22">
+        <v>0.9999032641030405</v>
+      </c>
+      <c r="P22">
+        <v>0.9999627927593648</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999627927593648</v>
+      </c>
+      <c r="R22">
+        <v>0.999986046277185</v>
+      </c>
+      <c r="S22">
+        <v>0.999986046277185</v>
+      </c>
+      <c r="T22">
+        <v>0.9999950385442388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000389930487881</v>
+      </c>
+      <c r="D23">
+        <v>0.9996783087691536</v>
+      </c>
+      <c r="E23">
+        <v>1.000146222750763</v>
+      </c>
+      <c r="F23">
+        <v>1.000146222750763</v>
+      </c>
+      <c r="G23">
+        <v>0.999415101922278</v>
+      </c>
+      <c r="H23">
+        <v>1.000146222750763</v>
+      </c>
+      <c r="I23">
+        <v>1.000146222750763</v>
+      </c>
+      <c r="J23">
+        <v>0.999415101922278</v>
+      </c>
+      <c r="K23">
+        <v>1.000146222750763</v>
+      </c>
+      <c r="L23">
+        <v>1.000146222750763</v>
+      </c>
+      <c r="M23">
+        <v>0.9997806623365204</v>
+      </c>
+      <c r="N23">
+        <v>0.9997806623365204</v>
+      </c>
+      <c r="O23">
+        <v>0.9997465444807315</v>
+      </c>
+      <c r="P23">
+        <v>0.9999025158079345</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999025158079345</v>
+      </c>
+      <c r="R23">
+        <v>0.9999634425436416</v>
+      </c>
+      <c r="S23">
+        <v>0.9999634425436416</v>
+      </c>
+      <c r="T23">
+        <v>0.9999870015719335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000099473049793</v>
+      </c>
+      <c r="D24">
+        <v>0.999917935680455</v>
+      </c>
+      <c r="E24">
+        <v>1.000037302701939</v>
+      </c>
+      <c r="F24">
+        <v>1.000037302701939</v>
+      </c>
+      <c r="G24">
+        <v>0.9998507951804644</v>
+      </c>
+      <c r="H24">
+        <v>1.000037302701939</v>
+      </c>
+      <c r="I24">
+        <v>1.000037302701939</v>
+      </c>
+      <c r="J24">
+        <v>0.9998507951804644</v>
+      </c>
+      <c r="K24">
+        <v>1.000037302701939</v>
+      </c>
+      <c r="L24">
+        <v>1.000037302701939</v>
+      </c>
+      <c r="M24">
+        <v>0.9999440489412015</v>
+      </c>
+      <c r="N24">
+        <v>0.9999440489412015</v>
+      </c>
+      <c r="O24">
+        <v>0.9999353445209526</v>
+      </c>
+      <c r="P24">
+        <v>0.999975133528114</v>
+      </c>
+      <c r="Q24">
+        <v>0.999975133528114</v>
+      </c>
+      <c r="R24">
+        <v>0.9999906758215702</v>
+      </c>
+      <c r="S24">
+        <v>0.9999906758215702</v>
+      </c>
+      <c r="T24">
+        <v>0.9999966853360881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.002274152756343</v>
+      </c>
+      <c r="D25">
+        <v>0.9981238177656536</v>
+      </c>
+      <c r="E25">
+        <v>1.000852804689774</v>
+      </c>
+      <c r="F25">
+        <v>1.000852804689774</v>
+      </c>
+      <c r="G25">
+        <v>0.9965887577405295</v>
+      </c>
+      <c r="H25">
+        <v>1.000852804689774</v>
+      </c>
+      <c r="I25">
+        <v>1.000852804689774</v>
+      </c>
+      <c r="J25">
+        <v>0.9965887577405295</v>
+      </c>
+      <c r="K25">
+        <v>1.000852804689774</v>
+      </c>
+      <c r="L25">
+        <v>1.000852804689774</v>
+      </c>
+      <c r="M25">
+        <v>0.9987207812151518</v>
+      </c>
+      <c r="N25">
+        <v>0.9987207812151518</v>
+      </c>
+      <c r="O25">
+        <v>0.9985217933986524</v>
+      </c>
+      <c r="P25">
+        <v>0.9994314557066927</v>
+      </c>
+      <c r="Q25">
+        <v>0.9994314557066927</v>
+      </c>
+      <c r="R25">
+        <v>0.9997867929524631</v>
+      </c>
+      <c r="S25">
+        <v>0.9997867929524631</v>
+      </c>
+      <c r="T25">
+        <v>0.9999241903886414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000596077121335</v>
+      </c>
+      <c r="D26">
+        <v>0.9995082398575483</v>
+      </c>
+      <c r="E26">
+        <v>1.000223525111915</v>
+      </c>
+      <c r="F26">
+        <v>1.000223525111915</v>
+      </c>
+      <c r="G26">
+        <v>0.9991058924447144</v>
+      </c>
+      <c r="H26">
+        <v>1.000223525111915</v>
+      </c>
+      <c r="I26">
+        <v>1.000223525111915</v>
+      </c>
+      <c r="J26">
+        <v>0.9991058924447144</v>
+      </c>
+      <c r="K26">
+        <v>1.000223525111915</v>
+      </c>
+      <c r="L26">
+        <v>1.000223525111915</v>
+      </c>
+      <c r="M26">
+        <v>0.9996647087783148</v>
+      </c>
+      <c r="N26">
+        <v>0.9996647087783148</v>
+      </c>
+      <c r="O26">
+        <v>0.9996125524713927</v>
+      </c>
+      <c r="P26">
+        <v>0.999850980889515</v>
+      </c>
+      <c r="Q26">
+        <v>0.999850980889515</v>
+      </c>
+      <c r="R26">
+        <v>0.9999441169451151</v>
+      </c>
+      <c r="S26">
+        <v>0.9999441169451151</v>
+      </c>
+      <c r="T26">
+        <v>0.9999801307932238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9995843537739867</v>
+      </c>
+      <c r="D27">
+        <v>1.00034291589501</v>
+      </c>
+      <c r="E27">
+        <v>0.9998441362526951</v>
+      </c>
+      <c r="F27">
+        <v>0.9998441362526951</v>
+      </c>
+      <c r="G27">
+        <v>1.000623477008479</v>
+      </c>
+      <c r="H27">
+        <v>0.9998441362526951</v>
+      </c>
+      <c r="I27">
+        <v>0.9998441362526951</v>
+      </c>
+      <c r="J27">
+        <v>1.000623477008479</v>
+      </c>
+      <c r="K27">
+        <v>0.9998441362526951</v>
+      </c>
+      <c r="L27">
+        <v>0.9998441362526951</v>
+      </c>
+      <c r="M27">
+        <v>1.000233806630587</v>
+      </c>
+      <c r="N27">
+        <v>1.000233806630587</v>
+      </c>
+      <c r="O27">
+        <v>1.000270176385395</v>
+      </c>
+      <c r="P27">
+        <v>1.000103916504623</v>
+      </c>
+      <c r="Q27">
+        <v>1.000103916504623</v>
+      </c>
+      <c r="R27">
+        <v>1.000038971441641</v>
+      </c>
+      <c r="S27">
+        <v>1.000038971441641</v>
+      </c>
+      <c r="T27">
+        <v>1.00001385923926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.000482667149863</v>
+      </c>
+      <c r="D28">
+        <v>0.9996018049087687</v>
+      </c>
+      <c r="E28">
+        <v>1.000181009530593</v>
+      </c>
+      <c r="F28">
+        <v>1.000181009530593</v>
+      </c>
+      <c r="G28">
+        <v>0.9992760068479926</v>
+      </c>
+      <c r="H28">
+        <v>1.000181009530593</v>
+      </c>
+      <c r="I28">
+        <v>1.000181009530593</v>
+      </c>
+      <c r="J28">
+        <v>0.9992760068479926</v>
+      </c>
+      <c r="K28">
+        <v>1.000181009530593</v>
+      </c>
+      <c r="L28">
+        <v>1.000181009530593</v>
+      </c>
+      <c r="M28">
+        <v>0.9997285081892926</v>
+      </c>
+      <c r="N28">
+        <v>0.9997285081892926</v>
+      </c>
+      <c r="O28">
+        <v>0.9996862737624513</v>
+      </c>
+      <c r="P28">
+        <v>0.9998793419697259</v>
+      </c>
+      <c r="Q28">
+        <v>0.9998793419697259</v>
+      </c>
+      <c r="R28">
+        <v>0.9999547588599427</v>
+      </c>
+      <c r="S28">
+        <v>0.9999547588599427</v>
+      </c>
+      <c r="T28">
+        <v>0.9999839179164004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.001738505520928</v>
+      </c>
+      <c r="D29">
+        <v>0.99856574247173</v>
+      </c>
+      <c r="E29">
+        <v>1.000651963228211</v>
+      </c>
+      <c r="F29">
+        <v>1.000651963228211</v>
+      </c>
+      <c r="G29">
+        <v>0.99739224422393</v>
+      </c>
+      <c r="H29">
+        <v>1.000651963228211</v>
+      </c>
+      <c r="I29">
+        <v>1.000651963228211</v>
+      </c>
+      <c r="J29">
+        <v>0.99739224422393</v>
+      </c>
+      <c r="K29">
+        <v>1.000651963228211</v>
+      </c>
+      <c r="L29">
+        <v>1.000651963228211</v>
+      </c>
+      <c r="M29">
+        <v>0.9990221037260706</v>
+      </c>
+      <c r="N29">
+        <v>0.9990221037260706</v>
+      </c>
+      <c r="O29">
+        <v>0.9988699833079572</v>
+      </c>
+      <c r="P29">
+        <v>0.9995653902267841</v>
+      </c>
+      <c r="Q29">
+        <v>0.9995653902267841</v>
+      </c>
+      <c r="R29">
+        <v>0.9998370334771409</v>
+      </c>
+      <c r="S29">
+        <v>0.9998370334771409</v>
+      </c>
+      <c r="T29">
+        <v>0.9999420636502037</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha1F-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha1F-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.00061100550866</v>
+        <v>0.9989841347753387</v>
       </c>
       <c r="D4">
-        <v>0.9994959208824752</v>
+        <v>1.000838089751942</v>
       </c>
       <c r="E4">
-        <v>1.000229125034478</v>
+        <v>0.9996190495024828</v>
       </c>
       <c r="F4">
-        <v>1.000229125034478</v>
+        <v>0.9996190495024828</v>
       </c>
       <c r="G4">
-        <v>0.9990834930624413</v>
+        <v>1.001523799109348</v>
       </c>
       <c r="H4">
-        <v>1.000229125034478</v>
+        <v>0.9996190495024828</v>
       </c>
       <c r="I4">
-        <v>1.000229125034478</v>
+        <v>0.9996190495024828</v>
       </c>
       <c r="J4">
-        <v>0.9990834930624413</v>
+        <v>1.001523799109348</v>
       </c>
       <c r="K4">
-        <v>1.000229125034478</v>
+        <v>0.9996190495024828</v>
       </c>
       <c r="L4">
-        <v>1.000229125034478</v>
+        <v>0.9996190495024828</v>
       </c>
       <c r="M4">
-        <v>0.9996563090484596</v>
+        <v>1.000571424305916</v>
       </c>
       <c r="N4">
-        <v>0.9996563090484596</v>
+        <v>1.000571424305916</v>
       </c>
       <c r="O4">
-        <v>0.9996028463264648</v>
+        <v>1.000660312787924</v>
       </c>
       <c r="P4">
-        <v>0.9998472477104657</v>
+        <v>1.000253966038105</v>
       </c>
       <c r="Q4">
-        <v>0.9998472477104657</v>
+        <v>1.000253966038105</v>
       </c>
       <c r="R4">
-        <v>0.9999427170414688</v>
+        <v>1.000095236904199</v>
       </c>
       <c r="S4">
-        <v>0.9999427170414688</v>
+        <v>1.000095236904199</v>
       </c>
       <c r="T4">
-        <v>0.9999796324261684</v>
+        <v>1.000033862024013</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9988506555763668</v>
+        <v>1.002111841700068</v>
       </c>
       <c r="D5">
-        <v>1.000948209726224</v>
+        <v>0.9982577299156078</v>
       </c>
       <c r="E5">
-        <v>0.9995689949567732</v>
+        <v>1.000791940582414</v>
       </c>
       <c r="F5">
-        <v>0.9995689949567732</v>
+        <v>1.000791940582414</v>
       </c>
       <c r="G5">
-        <v>1.001724018688764</v>
+        <v>0.996832232415972</v>
       </c>
       <c r="H5">
-        <v>0.9995689949567732</v>
+        <v>1.000791940582414</v>
       </c>
       <c r="I5">
-        <v>0.9995689949567732</v>
+        <v>1.000791940582414</v>
       </c>
       <c r="J5">
-        <v>1.001724018688764</v>
+        <v>0.996832232415972</v>
       </c>
       <c r="K5">
-        <v>0.9995689949567732</v>
+        <v>1.000791940582414</v>
       </c>
       <c r="L5">
-        <v>0.9995689949567732</v>
+        <v>1.000791940582414</v>
       </c>
       <c r="M5">
-        <v>1.000646506822768</v>
+        <v>0.9988120864991928</v>
       </c>
       <c r="N5">
-        <v>1.000646506822768</v>
+        <v>0.9988120864991928</v>
       </c>
       <c r="O5">
-        <v>1.000747074457254</v>
+        <v>0.9986273009713312</v>
       </c>
       <c r="P5">
-        <v>1.00028733620077</v>
+        <v>0.9994720378602665</v>
       </c>
       <c r="Q5">
-        <v>1.00028733620077</v>
+        <v>0.9994720378602665</v>
       </c>
       <c r="R5">
-        <v>1.000107750889771</v>
+        <v>0.9998020135408033</v>
       </c>
       <c r="S5">
-        <v>1.000107750889771</v>
+        <v>0.9998020135408033</v>
       </c>
       <c r="T5">
-        <v>1.000038311476946</v>
+        <v>0.9999296042964815</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9960228055515798</v>
+        <v>1.00061100550866</v>
       </c>
       <c r="D6">
-        <v>1.003281176834317</v>
+        <v>0.9994959208824752</v>
       </c>
       <c r="E6">
-        <v>0.9985085517792605</v>
+        <v>1.000229125034478</v>
       </c>
       <c r="F6">
-        <v>0.9985085517792605</v>
+        <v>1.000229125034478</v>
       </c>
       <c r="G6">
-        <v>1.005965812090454</v>
+        <v>0.9990834930624413</v>
       </c>
       <c r="H6">
-        <v>0.9985085517792605</v>
+        <v>1.000229125034478</v>
       </c>
       <c r="I6">
-        <v>0.9985085517792605</v>
+        <v>1.000229125034478</v>
       </c>
       <c r="J6">
-        <v>1.005965812090454</v>
+        <v>0.9990834930624413</v>
       </c>
       <c r="K6">
-        <v>0.9985085517792605</v>
+        <v>1.000229125034478</v>
       </c>
       <c r="L6">
-        <v>0.9985085517792605</v>
+        <v>1.000229125034478</v>
       </c>
       <c r="M6">
-        <v>1.002237181934857</v>
+        <v>0.9996563090484596</v>
       </c>
       <c r="N6">
-        <v>1.002237181934857</v>
+        <v>0.9996563090484596</v>
       </c>
       <c r="O6">
-        <v>1.002585180234677</v>
+        <v>0.9996028463264648</v>
       </c>
       <c r="P6">
-        <v>1.000994305216325</v>
+        <v>0.9998472477104657</v>
       </c>
       <c r="Q6">
-        <v>1.000994305216325</v>
+        <v>0.9998472477104657</v>
       </c>
       <c r="R6">
-        <v>1.000372866857059</v>
+        <v>0.9999427170414688</v>
       </c>
       <c r="S6">
-        <v>1.000372866857059</v>
+        <v>0.9999427170414688</v>
       </c>
       <c r="T6">
-        <v>1.000132574969022</v>
+        <v>0.9999796324261684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9998871523858243</v>
+        <v>0.9988506555763668</v>
       </c>
       <c r="D7">
-        <v>1.000093099464066</v>
+        <v>1.000948209726224</v>
       </c>
       <c r="E7">
-        <v>0.9999576814667012</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="F7">
-        <v>0.9999576814667012</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="G7">
-        <v>1.000169271942194</v>
+        <v>1.001724018688764</v>
       </c>
       <c r="H7">
-        <v>0.9999576814667012</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="I7">
-        <v>0.9999576814667012</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="J7">
-        <v>1.000169271942194</v>
+        <v>1.001724018688764</v>
       </c>
       <c r="K7">
-        <v>0.9999576814667012</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="L7">
-        <v>0.9999576814667012</v>
+        <v>0.9995689949567732</v>
       </c>
       <c r="M7">
-        <v>1.000063476704448</v>
+        <v>1.000646506822768</v>
       </c>
       <c r="N7">
-        <v>1.000063476704448</v>
+        <v>1.000646506822768</v>
       </c>
       <c r="O7">
-        <v>1.000073350957654</v>
+        <v>1.000747074457254</v>
       </c>
       <c r="P7">
-        <v>1.000028211625199</v>
+        <v>1.00028733620077</v>
       </c>
       <c r="Q7">
-        <v>1.000028211625199</v>
+        <v>1.00028733620077</v>
       </c>
       <c r="R7">
-        <v>1.000010579085574</v>
+        <v>1.000107750889771</v>
       </c>
       <c r="S7">
-        <v>1.000010579085574</v>
+        <v>1.000107750889771</v>
       </c>
       <c r="T7">
-        <v>1.000003761365365</v>
+        <v>1.000038311476946</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999900912801527</v>
+        <v>0.9960228055515798</v>
       </c>
       <c r="D8">
-        <v>1.000008174776088</v>
+        <v>1.003281176834317</v>
       </c>
       <c r="E8">
-        <v>0.9999962830573227</v>
+        <v>0.9985085517792605</v>
       </c>
       <c r="F8">
-        <v>0.9999962830573227</v>
+        <v>0.9985085517792605</v>
       </c>
       <c r="G8">
-        <v>1.000014863517747</v>
+        <v>1.005965812090454</v>
       </c>
       <c r="H8">
-        <v>0.9999962830573227</v>
+        <v>0.9985085517792605</v>
       </c>
       <c r="I8">
-        <v>0.9999962830573227</v>
+        <v>0.9985085517792605</v>
       </c>
       <c r="J8">
-        <v>1.000014863517747</v>
+        <v>1.005965812090454</v>
       </c>
       <c r="K8">
-        <v>0.9999962830573227</v>
+        <v>0.9985085517792605</v>
       </c>
       <c r="L8">
-        <v>0.9999962830573227</v>
+        <v>0.9985085517792605</v>
       </c>
       <c r="M8">
-        <v>1.000005573287535</v>
+        <v>1.002237181934857</v>
       </c>
       <c r="N8">
-        <v>1.000005573287535</v>
+        <v>1.002237181934857</v>
       </c>
       <c r="O8">
-        <v>1.000006440450386</v>
+        <v>1.002585180234677</v>
       </c>
       <c r="P8">
-        <v>1.000002476544131</v>
+        <v>1.000994305216325</v>
       </c>
       <c r="Q8">
-        <v>1.000002476544131</v>
+        <v>1.000994305216325</v>
       </c>
       <c r="R8">
-        <v>1.000000928172429</v>
+        <v>1.000372866857059</v>
       </c>
       <c r="S8">
-        <v>1.000000928172429</v>
+        <v>1.000372866857059</v>
       </c>
       <c r="T8">
-        <v>1.000000329790993</v>
+        <v>1.000132574969022</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9997812528426305</v>
+        <v>0.9998871523858243</v>
       </c>
       <c r="D9">
-        <v>1.000180466351349</v>
+        <v>1.000093099464066</v>
       </c>
       <c r="E9">
-        <v>0.9999179698202409</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="F9">
-        <v>0.9999179698202409</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="G9">
-        <v>1.000328120373429</v>
+        <v>1.000169271942194</v>
       </c>
       <c r="H9">
-        <v>0.9999179698202409</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="I9">
-        <v>0.9999179698202409</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="J9">
-        <v>1.000328120373429</v>
+        <v>1.000169271942194</v>
       </c>
       <c r="K9">
-        <v>0.9999179698202409</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="L9">
-        <v>0.9999179698202409</v>
+        <v>0.9999576814667012</v>
       </c>
       <c r="M9">
-        <v>1.000123045096835</v>
+        <v>1.000063476704448</v>
       </c>
       <c r="N9">
-        <v>1.000123045096835</v>
+        <v>1.000063476704448</v>
       </c>
       <c r="O9">
-        <v>1.000142185515006</v>
+        <v>1.000073350957654</v>
       </c>
       <c r="P9">
-        <v>1.000054686671304</v>
+        <v>1.000028211625199</v>
       </c>
       <c r="Q9">
-        <v>1.000054686671304</v>
+        <v>1.000028211625199</v>
       </c>
       <c r="R9">
-        <v>1.000020507458538</v>
+        <v>1.000010579085574</v>
       </c>
       <c r="S9">
-        <v>1.000020507458538</v>
+        <v>1.000010579085574</v>
       </c>
       <c r="T9">
-        <v>1.000007291504688</v>
+        <v>1.000003761365365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9959635320398732</v>
+        <v>0.9999900912801527</v>
       </c>
       <c r="D10">
-        <v>1.00333007797533</v>
+        <v>1.000008174776088</v>
       </c>
       <c r="E10">
-        <v>0.9984863240433032</v>
+        <v>0.9999962830573227</v>
       </c>
       <c r="F10">
-        <v>0.9984863240433032</v>
+        <v>0.9999962830573227</v>
       </c>
       <c r="G10">
-        <v>1.006054722636203</v>
+        <v>1.000014863517747</v>
       </c>
       <c r="H10">
-        <v>0.9984863240433032</v>
+        <v>0.9999962830573227</v>
       </c>
       <c r="I10">
-        <v>0.9984863240433032</v>
+        <v>0.9999962830573227</v>
       </c>
       <c r="J10">
-        <v>1.006054722636203</v>
+        <v>1.000014863517747</v>
       </c>
       <c r="K10">
-        <v>0.9984863240433032</v>
+        <v>0.9999962830573227</v>
       </c>
       <c r="L10">
-        <v>0.9984863240433032</v>
+        <v>0.9999962830573227</v>
       </c>
       <c r="M10">
-        <v>1.002270523339753</v>
+        <v>1.000005573287535</v>
       </c>
       <c r="N10">
-        <v>1.002270523339753</v>
+        <v>1.000005573287535</v>
       </c>
       <c r="O10">
-        <v>1.002623708218279</v>
+        <v>1.000006440450386</v>
       </c>
       <c r="P10">
-        <v>1.00100912357427</v>
+        <v>1.000002476544131</v>
       </c>
       <c r="Q10">
-        <v>1.00100912357427</v>
+        <v>1.000002476544131</v>
       </c>
       <c r="R10">
-        <v>1.000378423691528</v>
+        <v>1.000000928172429</v>
       </c>
       <c r="S10">
-        <v>1.000378423691528</v>
+        <v>1.000000928172429</v>
       </c>
       <c r="T10">
-        <v>1.000134550796886</v>
+        <v>1.000000329790993</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000247377494052</v>
+        <v>0.9997812528426305</v>
       </c>
       <c r="D11">
-        <v>0.99979591438881</v>
+        <v>1.000180466351349</v>
       </c>
       <c r="E11">
-        <v>1.000092764955173</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="F11">
-        <v>1.000092764955173</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="G11">
-        <v>0.9996289370118633</v>
+        <v>1.000328120373429</v>
       </c>
       <c r="H11">
-        <v>1.000092764955173</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="I11">
-        <v>1.000092764955173</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="J11">
-        <v>0.9996289370118633</v>
+        <v>1.000328120373429</v>
       </c>
       <c r="K11">
-        <v>1.000092764955173</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="L11">
-        <v>1.000092764955173</v>
+        <v>0.9999179698202409</v>
       </c>
       <c r="M11">
-        <v>0.9998608509835178</v>
+        <v>1.000123045096835</v>
       </c>
       <c r="N11">
-        <v>0.9998608509835178</v>
+        <v>1.000123045096835</v>
       </c>
       <c r="O11">
-        <v>0.9998392054519485</v>
+        <v>1.000142185515006</v>
       </c>
       <c r="P11">
-        <v>0.9999381556407361</v>
+        <v>1.000054686671304</v>
       </c>
       <c r="Q11">
-        <v>0.9999381556407361</v>
+        <v>1.000054686671304</v>
       </c>
       <c r="R11">
-        <v>0.9999768079693452</v>
+        <v>1.000020507458538</v>
       </c>
       <c r="S11">
-        <v>0.9999768079693452</v>
+        <v>1.000020507458538</v>
       </c>
       <c r="T11">
-        <v>0.9999917539600404</v>
+        <v>1.000007291504688</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9988104541263135</v>
+        <v>0.9959635320398732</v>
       </c>
       <c r="D12">
-        <v>1.000981376357895</v>
+        <v>1.00333007797533</v>
       </c>
       <c r="E12">
-        <v>0.9995539189473672</v>
+        <v>0.9984863240433032</v>
       </c>
       <c r="F12">
-        <v>0.9995539189473672</v>
+        <v>0.9984863240433032</v>
       </c>
       <c r="G12">
-        <v>1.001784321884214</v>
+        <v>1.006054722636203</v>
       </c>
       <c r="H12">
-        <v>0.9995539189473672</v>
+        <v>0.9984863240433032</v>
       </c>
       <c r="I12">
-        <v>0.9995539189473672</v>
+        <v>0.9984863240433032</v>
       </c>
       <c r="J12">
-        <v>1.001784321884214</v>
+        <v>1.006054722636203</v>
       </c>
       <c r="K12">
-        <v>0.9995539189473672</v>
+        <v>0.9984863240433032</v>
       </c>
       <c r="L12">
-        <v>0.9995539189473672</v>
+        <v>0.9984863240433032</v>
       </c>
       <c r="M12">
-        <v>1.00066912041579</v>
+        <v>1.002270523339753</v>
       </c>
       <c r="N12">
-        <v>1.00066912041579</v>
+        <v>1.002270523339753</v>
       </c>
       <c r="O12">
-        <v>1.000773205729826</v>
+        <v>1.002623708218279</v>
       </c>
       <c r="P12">
-        <v>1.000297386592983</v>
+        <v>1.00100912357427</v>
       </c>
       <c r="Q12">
-        <v>1.000297386592983</v>
+        <v>1.00100912357427</v>
       </c>
       <c r="R12">
-        <v>1.000111519681579</v>
+        <v>1.000378423691528</v>
       </c>
       <c r="S12">
-        <v>1.000111519681579</v>
+        <v>1.000378423691528</v>
       </c>
       <c r="T12">
-        <v>1.000039651535087</v>
+        <v>1.000134550796886</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.00079386864396</v>
+        <v>1.000247377494052</v>
       </c>
       <c r="D13">
-        <v>0.9993450600703044</v>
+        <v>0.99979591438881</v>
       </c>
       <c r="E13">
-        <v>1.000297699021145</v>
+        <v>1.000092764955173</v>
       </c>
       <c r="F13">
-        <v>1.000297699021145</v>
+        <v>1.000092764955173</v>
       </c>
       <c r="G13">
-        <v>0.9988091989906001</v>
+        <v>0.9996289370118633</v>
       </c>
       <c r="H13">
-        <v>1.000297699021145</v>
+        <v>1.000092764955173</v>
       </c>
       <c r="I13">
-        <v>1.000297699021145</v>
+        <v>1.000092764955173</v>
       </c>
       <c r="J13">
-        <v>0.9988091989906001</v>
+        <v>0.9996289370118633</v>
       </c>
       <c r="K13">
-        <v>1.000297699021145</v>
+        <v>1.000092764955173</v>
       </c>
       <c r="L13">
-        <v>1.000297699021145</v>
+        <v>1.000092764955173</v>
       </c>
       <c r="M13">
-        <v>0.9995534490058725</v>
+        <v>0.9998608509835178</v>
       </c>
       <c r="N13">
-        <v>0.9995534490058725</v>
+        <v>0.9998608509835178</v>
       </c>
       <c r="O13">
-        <v>0.9994839860273498</v>
+        <v>0.9998392054519485</v>
       </c>
       <c r="P13">
-        <v>0.9998015323442967</v>
+        <v>0.9999381556407361</v>
       </c>
       <c r="Q13">
-        <v>0.9998015323442967</v>
+        <v>0.9999381556407361</v>
       </c>
       <c r="R13">
-        <v>0.9999255740135087</v>
+        <v>0.9999768079693452</v>
       </c>
       <c r="S13">
-        <v>0.9999255740135087</v>
+        <v>0.9999768079693452</v>
       </c>
       <c r="T13">
-        <v>0.9999735374613831</v>
+        <v>0.9999917539600404</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9930261599999998</v>
+        <v>0.9988104541263135</v>
       </c>
       <c r="D14">
-        <v>1.005753400000002</v>
+        <v>1.000981376357895</v>
       </c>
       <c r="E14">
-        <v>0.9973848100000001</v>
+        <v>0.9995539189473672</v>
       </c>
       <c r="F14">
-        <v>0.9973848100000001</v>
+        <v>0.9995539189473672</v>
       </c>
       <c r="G14">
-        <v>1.010460799999999</v>
+        <v>1.001784321884214</v>
       </c>
       <c r="H14">
-        <v>0.9973848100000001</v>
+        <v>0.9995539189473672</v>
       </c>
       <c r="I14">
-        <v>0.9973848100000001</v>
+        <v>0.9995539189473672</v>
       </c>
       <c r="J14">
-        <v>1.010460799999999</v>
+        <v>1.001784321884214</v>
       </c>
       <c r="K14">
-        <v>0.9973848100000001</v>
+        <v>0.9995539189473672</v>
       </c>
       <c r="L14">
-        <v>0.9973848100000001</v>
+        <v>0.9995539189473672</v>
       </c>
       <c r="M14">
-        <v>1.003922805</v>
+        <v>1.00066912041579</v>
       </c>
       <c r="N14">
-        <v>1.003922805</v>
+        <v>1.00066912041579</v>
       </c>
       <c r="O14">
-        <v>1.004533003333334</v>
+        <v>1.000773205729826</v>
       </c>
       <c r="P14">
-        <v>1.001743473333333</v>
+        <v>1.000297386592983</v>
       </c>
       <c r="Q14">
-        <v>1.001743473333333</v>
+        <v>1.000297386592983</v>
       </c>
       <c r="R14">
-        <v>1.0006538075</v>
+        <v>1.000111519681579</v>
       </c>
       <c r="S14">
-        <v>1.0006538075</v>
+        <v>1.000111519681579</v>
       </c>
       <c r="T14">
-        <v>1.000232465</v>
+        <v>1.000039651535087</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.0026814</v>
+        <v>1.00079386864396</v>
       </c>
       <c r="D15">
-        <v>0.99778785</v>
+        <v>0.9993450600703044</v>
       </c>
       <c r="E15">
-        <v>1.0010055</v>
+        <v>1.000297699021145</v>
       </c>
       <c r="F15">
-        <v>1.0010055</v>
+        <v>1.000297699021145</v>
       </c>
       <c r="G15">
-        <v>0.9959779000000001</v>
+        <v>0.9988091989906001</v>
       </c>
       <c r="H15">
-        <v>1.0010055</v>
+        <v>1.000297699021145</v>
       </c>
       <c r="I15">
-        <v>1.0010055</v>
+        <v>1.000297699021145</v>
       </c>
       <c r="J15">
-        <v>0.9959779000000001</v>
+        <v>0.9988091989906001</v>
       </c>
       <c r="K15">
-        <v>1.0010055</v>
+        <v>1.000297699021145</v>
       </c>
       <c r="L15">
-        <v>1.0010055</v>
+        <v>1.000297699021145</v>
       </c>
       <c r="M15">
-        <v>0.9984917</v>
+        <v>0.9995534490058725</v>
       </c>
       <c r="N15">
-        <v>0.9984917</v>
+        <v>0.9995534490058725</v>
       </c>
       <c r="O15">
-        <v>0.9982570833333333</v>
+        <v>0.9994839860273498</v>
       </c>
       <c r="P15">
-        <v>0.9993296333333334</v>
+        <v>0.9998015323442967</v>
       </c>
       <c r="Q15">
-        <v>0.9993296333333334</v>
+        <v>0.9998015323442967</v>
       </c>
       <c r="R15">
-        <v>0.9997486</v>
+        <v>0.9999255740135087</v>
       </c>
       <c r="S15">
-        <v>0.9997486</v>
+        <v>0.9999255740135087</v>
       </c>
       <c r="T15">
-        <v>0.9999106083333333</v>
+        <v>0.9999735374613831</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0044469</v>
+        <v>0.9930261599999998</v>
       </c>
       <c r="D16">
-        <v>0.99633129</v>
+        <v>1.005753400000002</v>
       </c>
       <c r="E16">
-        <v>1.0016676</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="F16">
-        <v>1.0016676</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="G16">
-        <v>0.99332961</v>
+        <v>1.010460799999999</v>
       </c>
       <c r="H16">
-        <v>1.0016676</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="I16">
-        <v>1.0016676</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="J16">
-        <v>0.99332961</v>
+        <v>1.010460799999999</v>
       </c>
       <c r="K16">
-        <v>1.0016676</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="L16">
-        <v>1.0016676</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="M16">
-        <v>0.997498605</v>
+        <v>1.003922805</v>
       </c>
       <c r="N16">
-        <v>0.997498605</v>
+        <v>1.003922805</v>
       </c>
       <c r="O16">
-        <v>0.9971095</v>
+        <v>1.004533003333334</v>
       </c>
       <c r="P16">
-        <v>0.99888827</v>
+        <v>1.001743473333333</v>
       </c>
       <c r="Q16">
-        <v>0.99888827</v>
+        <v>1.001743473333333</v>
       </c>
       <c r="R16">
-        <v>0.9995831024999999</v>
+        <v>1.0006538075</v>
       </c>
       <c r="S16">
-        <v>0.9995831024999999</v>
+        <v>1.0006538075</v>
       </c>
       <c r="T16">
-        <v>0.9998517666666668</v>
+        <v>1.000232465</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0049952</v>
+        <v>1.0026814</v>
       </c>
       <c r="D17">
-        <v>0.99587895</v>
+        <v>0.99778785</v>
       </c>
       <c r="E17">
-        <v>1.0018732</v>
+        <v>1.0010055</v>
       </c>
       <c r="F17">
-        <v>1.0018732</v>
+        <v>1.0010055</v>
       </c>
       <c r="G17">
-        <v>0.99250719</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="H17">
-        <v>1.0018732</v>
+        <v>1.0010055</v>
       </c>
       <c r="I17">
-        <v>1.0018732</v>
+        <v>1.0010055</v>
       </c>
       <c r="J17">
-        <v>0.99250719</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="K17">
-        <v>1.0018732</v>
+        <v>1.0010055</v>
       </c>
       <c r="L17">
-        <v>1.0018732</v>
+        <v>1.0010055</v>
       </c>
       <c r="M17">
-        <v>0.9971901949999999</v>
+        <v>0.9984917</v>
       </c>
       <c r="N17">
-        <v>0.9971901949999999</v>
+        <v>0.9984917</v>
       </c>
       <c r="O17">
-        <v>0.9967531133333333</v>
+        <v>0.9982570833333333</v>
       </c>
       <c r="P17">
-        <v>0.9987511966666666</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="Q17">
-        <v>0.9987511966666666</v>
+        <v>0.9993296333333334</v>
       </c>
       <c r="R17">
-        <v>0.9995316974999999</v>
+        <v>0.9997486</v>
       </c>
       <c r="S17">
-        <v>0.9995316974999999</v>
+        <v>0.9997486</v>
       </c>
       <c r="T17">
-        <v>0.99983349</v>
+        <v>0.9999106083333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9974573649315071</v>
+        <v>1.0044469</v>
       </c>
       <c r="D18">
-        <v>1.002097682876712</v>
+        <v>0.99633129</v>
       </c>
       <c r="E18">
-        <v>0.9990465115068496</v>
+        <v>1.0016676</v>
       </c>
       <c r="F18">
-        <v>0.9990465115068496</v>
+        <v>1.0016676</v>
       </c>
       <c r="G18">
-        <v>1.003813959452055</v>
+        <v>0.99332961</v>
       </c>
       <c r="H18">
-        <v>0.9990465115068496</v>
+        <v>1.0016676</v>
       </c>
       <c r="I18">
-        <v>0.9990465115068496</v>
+        <v>1.0016676</v>
       </c>
       <c r="J18">
-        <v>1.003813959452055</v>
+        <v>0.99332961</v>
       </c>
       <c r="K18">
-        <v>0.9990465115068496</v>
+        <v>1.0016676</v>
       </c>
       <c r="L18">
-        <v>0.9990465115068496</v>
+        <v>1.0016676</v>
       </c>
       <c r="M18">
-        <v>1.001430235479452</v>
+        <v>0.997498605</v>
       </c>
       <c r="N18">
-        <v>1.001430235479452</v>
+        <v>0.997498605</v>
       </c>
       <c r="O18">
-        <v>1.001652717945206</v>
+        <v>0.9971095</v>
       </c>
       <c r="P18">
-        <v>1.000635660821918</v>
+        <v>0.99888827</v>
       </c>
       <c r="Q18">
-        <v>1.000635660821918</v>
+        <v>0.99888827</v>
       </c>
       <c r="R18">
-        <v>1.000238373493151</v>
+        <v>0.9995831024999999</v>
       </c>
       <c r="S18">
-        <v>1.000238373493151</v>
+        <v>0.9995831024999999</v>
       </c>
       <c r="T18">
-        <v>1.000084756963471</v>
+        <v>0.9998517666666668</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000886104210526</v>
+        <v>1.0049952</v>
       </c>
       <c r="D19">
-        <v>0.9992689663157894</v>
+        <v>0.99587895</v>
       </c>
       <c r="E19">
-        <v>1.000332290526316</v>
+        <v>1.0018732</v>
       </c>
       <c r="F19">
-        <v>1.000332290526316</v>
+        <v>1.0018732</v>
       </c>
       <c r="G19">
-        <v>0.99867085</v>
+        <v>0.99250719</v>
       </c>
       <c r="H19">
-        <v>1.000332290526316</v>
+        <v>1.0018732</v>
       </c>
       <c r="I19">
-        <v>1.000332290526316</v>
+        <v>1.0018732</v>
       </c>
       <c r="J19">
-        <v>0.99867085</v>
+        <v>0.99250719</v>
       </c>
       <c r="K19">
-        <v>1.000332290526316</v>
+        <v>1.0018732</v>
       </c>
       <c r="L19">
-        <v>1.000332290526316</v>
+        <v>1.0018732</v>
       </c>
       <c r="M19">
-        <v>0.999501570263158</v>
+        <v>0.9971901949999999</v>
       </c>
       <c r="N19">
-        <v>0.999501570263158</v>
+        <v>0.9971901949999999</v>
       </c>
       <c r="O19">
-        <v>0.9994240356140351</v>
+        <v>0.9967531133333333</v>
       </c>
       <c r="P19">
-        <v>0.9997784770175441</v>
+        <v>0.9987511966666666</v>
       </c>
       <c r="Q19">
-        <v>0.9997784770175441</v>
+        <v>0.9987511966666666</v>
       </c>
       <c r="R19">
-        <v>0.9999169303947371</v>
+        <v>0.9995316974999999</v>
       </c>
       <c r="S19">
-        <v>0.9999169303947371</v>
+        <v>0.9995316974999999</v>
       </c>
       <c r="T19">
-        <v>0.9999704653508773</v>
+        <v>0.99983349</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.00146686631579</v>
+        <v>0.9974573649315071</v>
       </c>
       <c r="D20">
-        <v>0.998789834736842</v>
+        <v>1.002097682876712</v>
       </c>
       <c r="E20">
-        <v>1.000550074210526</v>
+        <v>0.9990465115068496</v>
       </c>
       <c r="F20">
-        <v>1.000550074210526</v>
+        <v>0.9990465115068496</v>
       </c>
       <c r="G20">
-        <v>0.9977996968421052</v>
+        <v>1.003813959452055</v>
       </c>
       <c r="H20">
-        <v>1.000550074210526</v>
+        <v>0.9990465115068496</v>
       </c>
       <c r="I20">
-        <v>1.000550074210526</v>
+        <v>0.9990465115068496</v>
       </c>
       <c r="J20">
-        <v>0.9977996968421052</v>
+        <v>1.003813959452055</v>
       </c>
       <c r="K20">
-        <v>1.000550074210526</v>
+        <v>0.9990465115068496</v>
       </c>
       <c r="L20">
-        <v>1.000550074210526</v>
+        <v>0.9990465115068496</v>
       </c>
       <c r="M20">
-        <v>0.9991748855263158</v>
+        <v>1.001430235479452</v>
       </c>
       <c r="N20">
-        <v>0.9991748855263158</v>
+        <v>1.001430235479452</v>
       </c>
       <c r="O20">
-        <v>0.9990465352631578</v>
+        <v>1.001652717945206</v>
       </c>
       <c r="P20">
-        <v>0.9996332817543859</v>
+        <v>1.000635660821918</v>
       </c>
       <c r="Q20">
-        <v>0.9996332817543859</v>
+        <v>1.000635660821918</v>
       </c>
       <c r="R20">
-        <v>0.999862479868421</v>
+        <v>1.000238373493151</v>
       </c>
       <c r="S20">
-        <v>0.999862479868421</v>
+        <v>1.000238373493151</v>
       </c>
       <c r="T20">
-        <v>0.9999511034210525</v>
+        <v>1.000084756963471</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000601591216699</v>
+        <v>1.000886104210526</v>
       </c>
       <c r="D21">
-        <v>0.9995036786203666</v>
+        <v>0.9992689663157894</v>
       </c>
       <c r="E21">
-        <v>1.000225594679133</v>
+        <v>1.000332290526316</v>
       </c>
       <c r="F21">
-        <v>1.000225594679133</v>
+        <v>1.000332290526316</v>
       </c>
       <c r="G21">
-        <v>0.9990975961512868</v>
+        <v>0.99867085</v>
       </c>
       <c r="H21">
-        <v>1.000225594679133</v>
+        <v>1.000332290526316</v>
       </c>
       <c r="I21">
-        <v>1.000225594679133</v>
+        <v>1.000332290526316</v>
       </c>
       <c r="J21">
-        <v>0.9990975961512868</v>
+        <v>0.99867085</v>
       </c>
       <c r="K21">
-        <v>1.000225594679133</v>
+        <v>1.000332290526316</v>
       </c>
       <c r="L21">
-        <v>1.000225594679133</v>
+        <v>1.000332290526316</v>
       </c>
       <c r="M21">
-        <v>0.9996615954152099</v>
+        <v>0.999501570263158</v>
       </c>
       <c r="N21">
-        <v>0.9996615954152099</v>
+        <v>0.999501570263158</v>
       </c>
       <c r="O21">
-        <v>0.9996089564835954</v>
+        <v>0.9994240356140351</v>
       </c>
       <c r="P21">
-        <v>0.9998495951698509</v>
+        <v>0.9997784770175441</v>
       </c>
       <c r="Q21">
-        <v>0.9998495951698509</v>
+        <v>0.9997784770175441</v>
       </c>
       <c r="R21">
-        <v>0.9999435950471715</v>
+        <v>0.9999169303947371</v>
       </c>
       <c r="S21">
-        <v>0.9999435950471715</v>
+        <v>0.9999169303947371</v>
       </c>
       <c r="T21">
-        <v>0.9999799416709586</v>
+        <v>0.9999704653508773</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.00014882529502</v>
+        <v>1.00146686631579</v>
       </c>
       <c r="D22">
-        <v>0.9998772208616727</v>
+        <v>0.998789834736842</v>
       </c>
       <c r="E22">
-        <v>1.000055806830645</v>
+        <v>1.000550074210526</v>
       </c>
       <c r="F22">
-        <v>1.000055806830645</v>
+        <v>1.000550074210526</v>
       </c>
       <c r="G22">
-        <v>0.9997767646168036</v>
+        <v>0.9977996968421052</v>
       </c>
       <c r="H22">
-        <v>1.000055806830645</v>
+        <v>1.000550074210526</v>
       </c>
       <c r="I22">
-        <v>1.000055806830645</v>
+        <v>1.000550074210526</v>
       </c>
       <c r="J22">
-        <v>0.9997767646168036</v>
+        <v>0.9977996968421052</v>
       </c>
       <c r="K22">
-        <v>1.000055806830645</v>
+        <v>1.000550074210526</v>
       </c>
       <c r="L22">
-        <v>1.000055806830645</v>
+        <v>1.000550074210526</v>
       </c>
       <c r="M22">
-        <v>0.9999162857237245</v>
+        <v>0.9991748855263158</v>
       </c>
       <c r="N22">
-        <v>0.9999162857237245</v>
+        <v>0.9991748855263158</v>
       </c>
       <c r="O22">
-        <v>0.9999032641030405</v>
+        <v>0.9990465352631578</v>
       </c>
       <c r="P22">
-        <v>0.9999627927593648</v>
+        <v>0.9996332817543859</v>
       </c>
       <c r="Q22">
-        <v>0.9999627927593648</v>
+        <v>0.9996332817543859</v>
       </c>
       <c r="R22">
-        <v>0.999986046277185</v>
+        <v>0.999862479868421</v>
       </c>
       <c r="S22">
-        <v>0.999986046277185</v>
+        <v>0.999862479868421</v>
       </c>
       <c r="T22">
-        <v>0.9999950385442388</v>
+        <v>0.9999511034210525</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.000389930487881</v>
+        <v>1.000601591216699</v>
       </c>
       <c r="D23">
-        <v>0.9996783087691536</v>
+        <v>0.9995036786203666</v>
       </c>
       <c r="E23">
-        <v>1.000146222750763</v>
+        <v>1.000225594679133</v>
       </c>
       <c r="F23">
-        <v>1.000146222750763</v>
+        <v>1.000225594679133</v>
       </c>
       <c r="G23">
-        <v>0.999415101922278</v>
+        <v>0.9990975961512868</v>
       </c>
       <c r="H23">
-        <v>1.000146222750763</v>
+        <v>1.000225594679133</v>
       </c>
       <c r="I23">
-        <v>1.000146222750763</v>
+        <v>1.000225594679133</v>
       </c>
       <c r="J23">
-        <v>0.999415101922278</v>
+        <v>0.9990975961512868</v>
       </c>
       <c r="K23">
-        <v>1.000146222750763</v>
+        <v>1.000225594679133</v>
       </c>
       <c r="L23">
-        <v>1.000146222750763</v>
+        <v>1.000225594679133</v>
       </c>
       <c r="M23">
-        <v>0.9997806623365204</v>
+        <v>0.9996615954152099</v>
       </c>
       <c r="N23">
-        <v>0.9997806623365204</v>
+        <v>0.9996615954152099</v>
       </c>
       <c r="O23">
-        <v>0.9997465444807315</v>
+        <v>0.9996089564835954</v>
       </c>
       <c r="P23">
-        <v>0.9999025158079345</v>
+        <v>0.9998495951698509</v>
       </c>
       <c r="Q23">
-        <v>0.9999025158079345</v>
+        <v>0.9998495951698509</v>
       </c>
       <c r="R23">
-        <v>0.9999634425436416</v>
+        <v>0.9999435950471715</v>
       </c>
       <c r="S23">
-        <v>0.9999634425436416</v>
+        <v>0.9999435950471715</v>
       </c>
       <c r="T23">
-        <v>0.9999870015719335</v>
+        <v>0.9999799416709586</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000099473049793</v>
+        <v>1.00014882529502</v>
       </c>
       <c r="D24">
-        <v>0.999917935680455</v>
+        <v>0.9998772208616727</v>
       </c>
       <c r="E24">
-        <v>1.000037302701939</v>
+        <v>1.000055806830645</v>
       </c>
       <c r="F24">
-        <v>1.000037302701939</v>
+        <v>1.000055806830645</v>
       </c>
       <c r="G24">
-        <v>0.9998507951804644</v>
+        <v>0.9997767646168036</v>
       </c>
       <c r="H24">
-        <v>1.000037302701939</v>
+        <v>1.000055806830645</v>
       </c>
       <c r="I24">
-        <v>1.000037302701939</v>
+        <v>1.000055806830645</v>
       </c>
       <c r="J24">
-        <v>0.9998507951804644</v>
+        <v>0.9997767646168036</v>
       </c>
       <c r="K24">
-        <v>1.000037302701939</v>
+        <v>1.000055806830645</v>
       </c>
       <c r="L24">
-        <v>1.000037302701939</v>
+        <v>1.000055806830645</v>
       </c>
       <c r="M24">
-        <v>0.9999440489412015</v>
+        <v>0.9999162857237245</v>
       </c>
       <c r="N24">
-        <v>0.9999440489412015</v>
+        <v>0.9999162857237245</v>
       </c>
       <c r="O24">
-        <v>0.9999353445209526</v>
+        <v>0.9999032641030405</v>
       </c>
       <c r="P24">
-        <v>0.999975133528114</v>
+        <v>0.9999627927593648</v>
       </c>
       <c r="Q24">
-        <v>0.999975133528114</v>
+        <v>0.9999627927593648</v>
       </c>
       <c r="R24">
-        <v>0.9999906758215702</v>
+        <v>0.999986046277185</v>
       </c>
       <c r="S24">
-        <v>0.9999906758215702</v>
+        <v>0.999986046277185</v>
       </c>
       <c r="T24">
-        <v>0.9999966853360881</v>
+        <v>0.9999950385442388</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.002274152756343</v>
+        <v>1.000389930487881</v>
       </c>
       <c r="D25">
-        <v>0.9981238177656536</v>
+        <v>0.9996783087691536</v>
       </c>
       <c r="E25">
-        <v>1.000852804689774</v>
+        <v>1.000146222750763</v>
       </c>
       <c r="F25">
-        <v>1.000852804689774</v>
+        <v>1.000146222750763</v>
       </c>
       <c r="G25">
-        <v>0.9965887577405295</v>
+        <v>0.999415101922278</v>
       </c>
       <c r="H25">
-        <v>1.000852804689774</v>
+        <v>1.000146222750763</v>
       </c>
       <c r="I25">
-        <v>1.000852804689774</v>
+        <v>1.000146222750763</v>
       </c>
       <c r="J25">
-        <v>0.9965887577405295</v>
+        <v>0.999415101922278</v>
       </c>
       <c r="K25">
-        <v>1.000852804689774</v>
+        <v>1.000146222750763</v>
       </c>
       <c r="L25">
-        <v>1.000852804689774</v>
+        <v>1.000146222750763</v>
       </c>
       <c r="M25">
-        <v>0.9987207812151518</v>
+        <v>0.9997806623365204</v>
       </c>
       <c r="N25">
-        <v>0.9987207812151518</v>
+        <v>0.9997806623365204</v>
       </c>
       <c r="O25">
-        <v>0.9985217933986524</v>
+        <v>0.9997465444807315</v>
       </c>
       <c r="P25">
-        <v>0.9994314557066927</v>
+        <v>0.9999025158079345</v>
       </c>
       <c r="Q25">
-        <v>0.9994314557066927</v>
+        <v>0.9999025158079345</v>
       </c>
       <c r="R25">
-        <v>0.9997867929524631</v>
+        <v>0.9999634425436416</v>
       </c>
       <c r="S25">
-        <v>0.9997867929524631</v>
+        <v>0.9999634425436416</v>
       </c>
       <c r="T25">
-        <v>0.9999241903886414</v>
+        <v>0.9999870015719335</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000596077121335</v>
+        <v>1.000099473049793</v>
       </c>
       <c r="D26">
-        <v>0.9995082398575483</v>
+        <v>0.999917935680455</v>
       </c>
       <c r="E26">
-        <v>1.000223525111915</v>
+        <v>1.000037302701939</v>
       </c>
       <c r="F26">
-        <v>1.000223525111915</v>
+        <v>1.000037302701939</v>
       </c>
       <c r="G26">
-        <v>0.9991058924447144</v>
+        <v>0.9998507951804644</v>
       </c>
       <c r="H26">
-        <v>1.000223525111915</v>
+        <v>1.000037302701939</v>
       </c>
       <c r="I26">
-        <v>1.000223525111915</v>
+        <v>1.000037302701939</v>
       </c>
       <c r="J26">
-        <v>0.9991058924447144</v>
+        <v>0.9998507951804644</v>
       </c>
       <c r="K26">
-        <v>1.000223525111915</v>
+        <v>1.000037302701939</v>
       </c>
       <c r="L26">
-        <v>1.000223525111915</v>
+        <v>1.000037302701939</v>
       </c>
       <c r="M26">
-        <v>0.9996647087783148</v>
+        <v>0.9999440489412015</v>
       </c>
       <c r="N26">
-        <v>0.9996647087783148</v>
+        <v>0.9999440489412015</v>
       </c>
       <c r="O26">
-        <v>0.9996125524713927</v>
+        <v>0.9999353445209526</v>
       </c>
       <c r="P26">
-        <v>0.999850980889515</v>
+        <v>0.999975133528114</v>
       </c>
       <c r="Q26">
-        <v>0.999850980889515</v>
+        <v>0.999975133528114</v>
       </c>
       <c r="R26">
-        <v>0.9999441169451151</v>
+        <v>0.9999906758215702</v>
       </c>
       <c r="S26">
-        <v>0.9999441169451151</v>
+        <v>0.9999906758215702</v>
       </c>
       <c r="T26">
-        <v>0.9999801307932238</v>
+        <v>0.9999966853360881</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9995843537739867</v>
+        <v>1.002274152756343</v>
       </c>
       <c r="D27">
-        <v>1.00034291589501</v>
+        <v>0.9981238177656536</v>
       </c>
       <c r="E27">
-        <v>0.9998441362526951</v>
+        <v>1.000852804689774</v>
       </c>
       <c r="F27">
-        <v>0.9998441362526951</v>
+        <v>1.000852804689774</v>
       </c>
       <c r="G27">
-        <v>1.000623477008479</v>
+        <v>0.9965887577405295</v>
       </c>
       <c r="H27">
-        <v>0.9998441362526951</v>
+        <v>1.000852804689774</v>
       </c>
       <c r="I27">
-        <v>0.9998441362526951</v>
+        <v>1.000852804689774</v>
       </c>
       <c r="J27">
-        <v>1.000623477008479</v>
+        <v>0.9965887577405295</v>
       </c>
       <c r="K27">
-        <v>0.9998441362526951</v>
+        <v>1.000852804689774</v>
       </c>
       <c r="L27">
-        <v>0.9998441362526951</v>
+        <v>1.000852804689774</v>
       </c>
       <c r="M27">
-        <v>1.000233806630587</v>
+        <v>0.9987207812151518</v>
       </c>
       <c r="N27">
-        <v>1.000233806630587</v>
+        <v>0.9987207812151518</v>
       </c>
       <c r="O27">
-        <v>1.000270176385395</v>
+        <v>0.9985217933986524</v>
       </c>
       <c r="P27">
-        <v>1.000103916504623</v>
+        <v>0.9994314557066927</v>
       </c>
       <c r="Q27">
-        <v>1.000103916504623</v>
+        <v>0.9994314557066927</v>
       </c>
       <c r="R27">
-        <v>1.000038971441641</v>
+        <v>0.9997867929524631</v>
       </c>
       <c r="S27">
-        <v>1.000038971441641</v>
+        <v>0.9997867929524631</v>
       </c>
       <c r="T27">
-        <v>1.00001385923926</v>
+        <v>0.9999241903886414</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.000482667149863</v>
+        <v>1.000596077121335</v>
       </c>
       <c r="D28">
-        <v>0.9996018049087687</v>
+        <v>0.9995082398575483</v>
       </c>
       <c r="E28">
-        <v>1.000181009530593</v>
+        <v>1.000223525111915</v>
       </c>
       <c r="F28">
-        <v>1.000181009530593</v>
+        <v>1.000223525111915</v>
       </c>
       <c r="G28">
-        <v>0.9992760068479926</v>
+        <v>0.9991058924447144</v>
       </c>
       <c r="H28">
-        <v>1.000181009530593</v>
+        <v>1.000223525111915</v>
       </c>
       <c r="I28">
-        <v>1.000181009530593</v>
+        <v>1.000223525111915</v>
       </c>
       <c r="J28">
-        <v>0.9992760068479926</v>
+        <v>0.9991058924447144</v>
       </c>
       <c r="K28">
-        <v>1.000181009530593</v>
+        <v>1.000223525111915</v>
       </c>
       <c r="L28">
-        <v>1.000181009530593</v>
+        <v>1.000223525111915</v>
       </c>
       <c r="M28">
-        <v>0.9997285081892926</v>
+        <v>0.9996647087783148</v>
       </c>
       <c r="N28">
-        <v>0.9997285081892926</v>
+        <v>0.9996647087783148</v>
       </c>
       <c r="O28">
-        <v>0.9996862737624513</v>
+        <v>0.9996125524713927</v>
       </c>
       <c r="P28">
-        <v>0.9998793419697259</v>
+        <v>0.999850980889515</v>
       </c>
       <c r="Q28">
-        <v>0.9998793419697259</v>
+        <v>0.999850980889515</v>
       </c>
       <c r="R28">
-        <v>0.9999547588599427</v>
+        <v>0.9999441169451151</v>
       </c>
       <c r="S28">
-        <v>0.9999547588599427</v>
+        <v>0.9999441169451151</v>
       </c>
       <c r="T28">
-        <v>0.9999839179164004</v>
+        <v>0.9999801307932238</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9995843537739867</v>
+      </c>
+      <c r="D29">
+        <v>1.00034291589501</v>
+      </c>
+      <c r="E29">
+        <v>0.9998441362526951</v>
+      </c>
+      <c r="F29">
+        <v>0.9998441362526951</v>
+      </c>
+      <c r="G29">
+        <v>1.000623477008479</v>
+      </c>
+      <c r="H29">
+        <v>0.9998441362526951</v>
+      </c>
+      <c r="I29">
+        <v>0.9998441362526951</v>
+      </c>
+      <c r="J29">
+        <v>1.000623477008479</v>
+      </c>
+      <c r="K29">
+        <v>0.9998441362526951</v>
+      </c>
+      <c r="L29">
+        <v>0.9998441362526951</v>
+      </c>
+      <c r="M29">
+        <v>1.000233806630587</v>
+      </c>
+      <c r="N29">
+        <v>1.000233806630587</v>
+      </c>
+      <c r="O29">
+        <v>1.000270176385395</v>
+      </c>
+      <c r="P29">
+        <v>1.000103916504623</v>
+      </c>
+      <c r="Q29">
+        <v>1.000103916504623</v>
+      </c>
+      <c r="R29">
+        <v>1.000038971441641</v>
+      </c>
+      <c r="S29">
+        <v>1.000038971441641</v>
+      </c>
+      <c r="T29">
+        <v>1.00001385923926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.000482667149863</v>
+      </c>
+      <c r="D30">
+        <v>0.9996018049087687</v>
+      </c>
+      <c r="E30">
+        <v>1.000181009530593</v>
+      </c>
+      <c r="F30">
+        <v>1.000181009530593</v>
+      </c>
+      <c r="G30">
+        <v>0.9992760068479926</v>
+      </c>
+      <c r="H30">
+        <v>1.000181009530593</v>
+      </c>
+      <c r="I30">
+        <v>1.000181009530593</v>
+      </c>
+      <c r="J30">
+        <v>0.9992760068479926</v>
+      </c>
+      <c r="K30">
+        <v>1.000181009530593</v>
+      </c>
+      <c r="L30">
+        <v>1.000181009530593</v>
+      </c>
+      <c r="M30">
+        <v>0.9997285081892926</v>
+      </c>
+      <c r="N30">
+        <v>0.9997285081892926</v>
+      </c>
+      <c r="O30">
+        <v>0.9996862737624513</v>
+      </c>
+      <c r="P30">
+        <v>0.9998793419697259</v>
+      </c>
+      <c r="Q30">
+        <v>0.9998793419697259</v>
+      </c>
+      <c r="R30">
+        <v>0.9999547588599427</v>
+      </c>
+      <c r="S30">
+        <v>0.9999547588599427</v>
+      </c>
+      <c r="T30">
+        <v>0.9999839179164004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.001738505520928</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.99856574247173</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.000651963228211</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.000651963228211</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.99739224422393</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.000651963228211</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.000651963228211</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.99739224422393</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.000651963228211</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.000651963228211</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.9990221037260706</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9990221037260706</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.9988699833079572</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9995653902267841</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9995653902267841</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.9998370334771409</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.9998370334771409</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9999420636502037</v>
       </c>
     </row>
